--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_23_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_23_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1367303.243670255</v>
+        <v>-1367970.01133743</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4774486.614412563</v>
+        <v>4774486.614412561</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058546</v>
+        <v>632041.4518058541</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13625657.24883621</v>
+        <v>13625657.24883622</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>47.34946411972058</v>
       </c>
       <c r="G11" t="n">
-        <v>77.25202564291784</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>77.25202564291784</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>20.69412006656157</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>77.25202564291784</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>77.25202564291789</v>
       </c>
       <c r="X11" t="n">
-        <v>68.04358418628198</v>
+        <v>77.25202564291789</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>77.25202564291789</v>
       </c>
     </row>
     <row r="12">
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>8.381461898016294</v>
+        <v>8.381461898016209</v>
       </c>
       <c r="U12" t="n">
-        <v>30.66260896132994</v>
+        <v>30.66260896132986</v>
       </c>
       <c r="V12" t="n">
-        <v>34.08385862937757</v>
+        <v>34.08385862937749</v>
       </c>
       <c r="W12" t="n">
-        <v>60.13952129098692</v>
+        <v>60.13952129098683</v>
       </c>
       <c r="X12" t="n">
-        <v>10.74785215344593</v>
+        <v>10.74785215344585</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.81922384800095</v>
+        <v>16.81922384800086</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>28.78453934594116</v>
+        <v>28.78453934594108</v>
       </c>
       <c r="T13" t="n">
-        <v>17.17481223885185</v>
+        <v>17.17481223885176</v>
       </c>
       <c r="U13" t="n">
-        <v>77.25202564291784</v>
+        <v>77.25202564291789</v>
       </c>
       <c r="V13" t="n">
-        <v>38.54395289842523</v>
+        <v>38.54395289842515</v>
       </c>
       <c r="W13" t="n">
-        <v>77.25202564291784</v>
+        <v>77.25202564291789</v>
       </c>
       <c r="X13" t="n">
-        <v>15.35439312221786</v>
+        <v>15.35439312221777</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.57621052814375</v>
+        <v>10.57621052814366</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>77.25202564291784</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>77.25202564291784</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,61 +1619,61 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>15.85129314863113</v>
+      </c>
+      <c r="U14" t="n">
+        <v>43.58457410617655</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>77.25202564291784</v>
       </c>
-      <c r="H14" t="n">
-        <v>77.25202564291784</v>
-      </c>
-      <c r="I14" t="n">
-        <v>34.00853336646773</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>20.69412006656164</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>77.25202564291784</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
       <c r="Y14" t="n">
-        <v>13.34093075325265</v>
+        <v>8.607716931474187</v>
       </c>
     </row>
     <row r="15">
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>8.381461898016294</v>
+        <v>8.381461898016209</v>
       </c>
       <c r="U15" t="n">
-        <v>30.66260896132994</v>
+        <v>30.66260896132986</v>
       </c>
       <c r="V15" t="n">
-        <v>34.08385862937757</v>
+        <v>34.08385862937749</v>
       </c>
       <c r="W15" t="n">
-        <v>60.13952129098692</v>
+        <v>60.13952129098683</v>
       </c>
       <c r="X15" t="n">
-        <v>10.74785215344593</v>
+        <v>10.74785215344585</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.81922384800095</v>
+        <v>16.81922384800086</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>28.78453934594116</v>
+        <v>28.78453934594108</v>
       </c>
       <c r="T16" t="n">
-        <v>17.17481223885185</v>
+        <v>17.17481223885176</v>
       </c>
       <c r="U16" t="n">
         <v>77.25202564291784</v>
       </c>
       <c r="V16" t="n">
-        <v>38.54395289842523</v>
+        <v>38.54395289842515</v>
       </c>
       <c r="W16" t="n">
         <v>77.25202564291784</v>
       </c>
       <c r="X16" t="n">
-        <v>15.35439312221786</v>
+        <v>15.35439312221777</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.57621052814375</v>
+        <v>10.57621052814366</v>
       </c>
     </row>
     <row r="17">
@@ -2081,7 +2081,7 @@
         <v>36.19077655206644</v>
       </c>
       <c r="C20" t="n">
-        <v>12.30903355541193</v>
+        <v>12.30903355541173</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>65.30278581424659</v>
       </c>
       <c r="G20" t="n">
-        <v>77.2520256429178</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="H20" t="n">
         <v>9.009067783188186</v>
@@ -2330,7 +2330,7 @@
         <v>65.30278581424659</v>
       </c>
       <c r="G23" t="n">
-        <v>77.25202564291784</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="H23" t="n">
         <v>9.009067783188186</v>
@@ -2555,7 +2555,7 @@
         <v>161.2009388502119</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3191958535573</v>
+        <v>137.3191958535574</v>
       </c>
       <c r="D26" t="n">
         <v>124.8858581146058</v>
@@ -2573,7 +2573,7 @@
         <v>134.0192300813336</v>
       </c>
       <c r="I26" t="n">
-        <v>27.68729412487093</v>
+        <v>27.68729412487096</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.37288082496484</v>
+        <v>14.37288082496488</v>
       </c>
       <c r="T26" t="n">
-        <v>9.530053907034411</v>
+        <v>9.530053907034443</v>
       </c>
       <c r="U26" t="n">
-        <v>37.26333486457983</v>
+        <v>37.26333486457986</v>
       </c>
       <c r="V26" t="n">
-        <v>107.9934820815305</v>
+        <v>107.9934820815306</v>
       </c>
       <c r="W26" t="n">
         <v>125.0101622981454</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.096745578338592</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>118.1409713013515</v>
       </c>
       <c r="T27" t="n">
-        <v>2.060222656419494</v>
+        <v>214.946524184041</v>
       </c>
       <c r="U27" t="n">
-        <v>24.34136971973314</v>
+        <v>24.34136971973317</v>
       </c>
       <c r="V27" t="n">
-        <v>98.28634981644009</v>
+        <v>27.7626193877808</v>
       </c>
       <c r="W27" t="n">
-        <v>53.81828204939012</v>
+        <v>53.81828204939015</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>4.426612911849162</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>10.49798460640417</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.46330010434436</v>
+        <v>22.46330010434439</v>
       </c>
       <c r="T28" t="n">
-        <v>10.85357299725505</v>
+        <v>10.85357299725508</v>
       </c>
       <c r="U28" t="n">
-        <v>75.76997862487461</v>
+        <v>75.76997862487464</v>
       </c>
       <c r="V28" t="n">
-        <v>32.22271365682843</v>
+        <v>32.22271365682846</v>
       </c>
       <c r="W28" t="n">
-        <v>77.42440556171385</v>
+        <v>77.42440556171388</v>
       </c>
       <c r="X28" t="n">
-        <v>9.033153880621057</v>
+        <v>9.033153880621086</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.254971286546947</v>
+        <v>4.254971286546976</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>161.2009388502119</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3191958535573</v>
+        <v>137.3191958535574</v>
       </c>
       <c r="D29" t="n">
         <v>124.8858581146058</v>
@@ -2810,7 +2810,7 @@
         <v>134.0192300813336</v>
       </c>
       <c r="I29" t="n">
-        <v>27.68729412487093</v>
+        <v>27.68729412487096</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.37288082496484</v>
+        <v>14.37288082496488</v>
       </c>
       <c r="T29" t="n">
-        <v>9.530053907034411</v>
+        <v>9.530053907034443</v>
       </c>
       <c r="U29" t="n">
-        <v>37.26333486457983</v>
+        <v>37.26333486457986</v>
       </c>
       <c r="V29" t="n">
-        <v>107.9934820815305</v>
+        <v>107.9934820815306</v>
       </c>
       <c r="W29" t="n">
         <v>125.0101622981454</v>
@@ -2874,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.2964434860576</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.096745578338592</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.060222656419494</v>
+        <v>2.060222656419523</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276712473546</v>
+        <v>24.34136971973317</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.7626193877808</v>
       </c>
       <c r="W30" t="n">
-        <v>53.81828204939012</v>
+        <v>53.81828204939015</v>
       </c>
       <c r="X30" t="n">
-        <v>4.426612911849134</v>
+        <v>4.426612911849162</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.11845753194436</v>
+        <v>10.49798460640417</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.46330010434436</v>
+        <v>22.46330010434439</v>
       </c>
       <c r="T31" t="n">
-        <v>10.85357299725505</v>
+        <v>10.85357299725508</v>
       </c>
       <c r="U31" t="n">
-        <v>75.76997862487461</v>
+        <v>75.76997862487464</v>
       </c>
       <c r="V31" t="n">
-        <v>32.22271365682843</v>
+        <v>32.22271365682846</v>
       </c>
       <c r="W31" t="n">
-        <v>77.42440556171385</v>
+        <v>77.42440556171388</v>
       </c>
       <c r="X31" t="n">
-        <v>9.033153880621057</v>
+        <v>9.033153880621086</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.254971286546947</v>
+        <v>4.254971286546976</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2009388502118</v>
+        <v>161.2009388502119</v>
       </c>
       <c r="C32" t="n">
         <v>137.3191958535573</v>
@@ -3035,19 +3035,19 @@
         <v>124.8858581146058</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5926105340146</v>
+        <v>158.5926105340147</v>
       </c>
       <c r="F32" t="n">
         <v>190.312948112392</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9405576794214</v>
+        <v>205.9405576794215</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0192300813335</v>
+        <v>134.0192300813336</v>
       </c>
       <c r="I32" t="n">
-        <v>27.68729412487087</v>
+        <v>27.68729412487093</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.3728808249648</v>
+        <v>14.37288082496485</v>
       </c>
       <c r="T32" t="n">
-        <v>9.530053907034358</v>
+        <v>9.530053907034414</v>
       </c>
       <c r="U32" t="n">
-        <v>37.26333486457978</v>
+        <v>37.26333486457983</v>
       </c>
       <c r="V32" t="n">
         <v>107.9934820815305</v>
@@ -3092,7 +3092,7 @@
         <v>125.0101622981454</v>
       </c>
       <c r="X32" t="n">
-        <v>146.8964127670846</v>
+        <v>146.8964127670847</v>
       </c>
       <c r="Y32" t="n">
         <v>169.3992658908284</v>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7385510817101</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.6770615541839</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>8.99441932038757</v>
       </c>
       <c r="T33" t="n">
         <v>214.946524184041</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2276712473546</v>
+        <v>24.34136971973314</v>
       </c>
       <c r="V33" t="n">
-        <v>27.76261938778072</v>
+        <v>27.76261938778077</v>
       </c>
       <c r="W33" t="n">
-        <v>53.81828204939006</v>
+        <v>53.81828204939012</v>
       </c>
       <c r="X33" t="n">
-        <v>74.95034334050595</v>
+        <v>4.426612911849134</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.49798460640409</v>
+        <v>10.49798460640415</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.46330010434431</v>
+        <v>22.46330010434436</v>
       </c>
       <c r="T34" t="n">
-        <v>10.85357299725499</v>
+        <v>10.85357299725505</v>
       </c>
       <c r="U34" t="n">
-        <v>75.76997862487455</v>
+        <v>75.76997862487461</v>
       </c>
       <c r="V34" t="n">
-        <v>32.22271365682838</v>
+        <v>32.22271365682843</v>
       </c>
       <c r="W34" t="n">
-        <v>77.4244055617138</v>
+        <v>77.42440556171385</v>
       </c>
       <c r="X34" t="n">
-        <v>9.033153880621001</v>
+        <v>9.033153880621057</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.25497128654689</v>
+        <v>4.254971286546947</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>139.9781137438243</v>
+        <v>139.9781137438244</v>
       </c>
       <c r="C35" t="n">
-        <v>116.0963707471698</v>
+        <v>116.0963707471699</v>
       </c>
       <c r="D35" t="n">
-        <v>103.6630330082183</v>
+        <v>103.6630330082184</v>
       </c>
       <c r="E35" t="n">
         <v>137.3697854276272</v>
       </c>
       <c r="F35" t="n">
-        <v>169.0901230060045</v>
+        <v>169.0901230060046</v>
       </c>
       <c r="G35" t="n">
-        <v>184.717732573034</v>
+        <v>184.7177325730341</v>
       </c>
       <c r="H35" t="n">
-        <v>112.7964049749461</v>
+        <v>112.7964049749462</v>
       </c>
       <c r="I35" t="n">
-        <v>6.464469018483413</v>
+        <v>6.464469018483499</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.04050975819231</v>
+        <v>16.0405097581924</v>
       </c>
       <c r="V35" t="n">
-        <v>86.77065697514303</v>
+        <v>86.77065697514311</v>
       </c>
       <c r="W35" t="n">
-        <v>103.7873371917579</v>
+        <v>103.787337191758</v>
       </c>
       <c r="X35" t="n">
-        <v>125.6735876606971</v>
+        <v>125.6735876606972</v>
       </c>
       <c r="Y35" t="n">
-        <v>148.1764407844409</v>
+        <v>148.176440784441</v>
       </c>
     </row>
     <row r="36">
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.118544613345628</v>
+        <v>3.118544613345713</v>
       </c>
       <c r="V36" t="n">
-        <v>6.539794281393256</v>
+        <v>6.539794281393341</v>
       </c>
       <c r="W36" t="n">
-        <v>32.5954569430026</v>
+        <v>32.59545694300269</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3472,19 +3472,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.240474997956847</v>
+        <v>1.240474997956932</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>54.54715351848709</v>
+        <v>54.54715351848717</v>
       </c>
       <c r="V37" t="n">
-        <v>10.99988855044091</v>
+        <v>10.999888550441</v>
       </c>
       <c r="W37" t="n">
-        <v>56.20158045532634</v>
+        <v>56.20158045532642</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>139.9781137438243</v>
+        <v>139.9781137438244</v>
       </c>
       <c r="C38" t="n">
-        <v>116.0963707471698</v>
+        <v>116.0963707471699</v>
       </c>
       <c r="D38" t="n">
-        <v>103.6630330082183</v>
+        <v>103.6630330082184</v>
       </c>
       <c r="E38" t="n">
         <v>137.3697854276272</v>
       </c>
       <c r="F38" t="n">
-        <v>169.0901230060045</v>
+        <v>169.0901230060046</v>
       </c>
       <c r="G38" t="n">
-        <v>184.717732573034</v>
+        <v>184.7177325730341</v>
       </c>
       <c r="H38" t="n">
-        <v>112.7964049749461</v>
+        <v>112.7964049749462</v>
       </c>
       <c r="I38" t="n">
-        <v>6.464469018483413</v>
+        <v>6.464469018483499</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>16.04050975819231</v>
+        <v>16.0405097581924</v>
       </c>
       <c r="V38" t="n">
-        <v>86.77065697514303</v>
+        <v>86.77065697514311</v>
       </c>
       <c r="W38" t="n">
-        <v>103.7873371917579</v>
+        <v>103.787337191758</v>
       </c>
       <c r="X38" t="n">
-        <v>125.6735876606971</v>
+        <v>125.6735876606972</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.1764407844409</v>
+        <v>148.176440784441</v>
       </c>
     </row>
     <row r="39">
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.118544613345628</v>
+        <v>3.118544613345713</v>
       </c>
       <c r="V39" t="n">
-        <v>6.539794281393256</v>
+        <v>6.539794281393341</v>
       </c>
       <c r="W39" t="n">
-        <v>32.5954569430026</v>
+        <v>32.59545694300269</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.240474997956847</v>
+        <v>1.240474997956932</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>54.54715351848709</v>
+        <v>54.54715351848717</v>
       </c>
       <c r="V40" t="n">
-        <v>10.99988855044091</v>
+        <v>10.999888550441</v>
       </c>
       <c r="W40" t="n">
-        <v>56.20158045532634</v>
+        <v>56.20158045532642</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>139.9781137438243</v>
+        <v>139.9781137438245</v>
       </c>
       <c r="C41" t="n">
-        <v>116.0963707471698</v>
+        <v>116.09637074717</v>
       </c>
       <c r="D41" t="n">
-        <v>103.6630330082182</v>
+        <v>103.6630330082184</v>
       </c>
       <c r="E41" t="n">
-        <v>137.3697854276271</v>
+        <v>137.3697854276273</v>
       </c>
       <c r="F41" t="n">
-        <v>169.0901230060044</v>
+        <v>169.0901230060046</v>
       </c>
       <c r="G41" t="n">
-        <v>184.7177325730339</v>
+        <v>184.7177325730341</v>
       </c>
       <c r="H41" t="n">
-        <v>112.796404974946</v>
+        <v>112.7964049749462</v>
       </c>
       <c r="I41" t="n">
-        <v>6.464469018483356</v>
+        <v>6.464469018483555</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>16.04050975819226</v>
+        <v>16.04050975819246</v>
       </c>
       <c r="V41" t="n">
-        <v>86.77065697514297</v>
+        <v>86.77065697514317</v>
       </c>
       <c r="W41" t="n">
-        <v>103.7873371917578</v>
+        <v>103.787337191758</v>
       </c>
       <c r="X41" t="n">
-        <v>125.6735876606971</v>
+        <v>125.6735876606973</v>
       </c>
       <c r="Y41" t="n">
-        <v>148.1764407844408</v>
+        <v>148.176440784441</v>
       </c>
     </row>
     <row r="42">
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.118544613345571</v>
+        <v>3.11854461334577</v>
       </c>
       <c r="V42" t="n">
-        <v>6.539794281393199</v>
+        <v>6.539794281393398</v>
       </c>
       <c r="W42" t="n">
-        <v>32.59545694300255</v>
+        <v>32.59545694300274</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.24047499795679</v>
+        <v>1.240474997956989</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>54.54715351848703</v>
+        <v>54.54715351848723</v>
       </c>
       <c r="V43" t="n">
-        <v>10.99988855044086</v>
+        <v>10.99988855044106</v>
       </c>
       <c r="W43" t="n">
-        <v>56.20158045532628</v>
+        <v>56.20158045532648</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>139.9781137438243</v>
+        <v>139.9781137438244</v>
       </c>
       <c r="C44" t="n">
-        <v>116.0963707471698</v>
+        <v>116.0963707471699</v>
       </c>
       <c r="D44" t="n">
-        <v>103.6630330082182</v>
+        <v>103.6630330082184</v>
       </c>
       <c r="E44" t="n">
-        <v>137.3697854276271</v>
+        <v>137.3697854276272</v>
       </c>
       <c r="F44" t="n">
-        <v>169.0901230060044</v>
+        <v>169.0901230060046</v>
       </c>
       <c r="G44" t="n">
-        <v>184.7177325730339</v>
+        <v>184.7177325730341</v>
       </c>
       <c r="H44" t="n">
-        <v>112.796404974946</v>
+        <v>112.7964049749462</v>
       </c>
       <c r="I44" t="n">
-        <v>6.464469018483356</v>
+        <v>6.464469018483499</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>16.04050975819226</v>
+        <v>16.0405097581924</v>
       </c>
       <c r="V44" t="n">
-        <v>86.77065697514297</v>
+        <v>86.77065697514311</v>
       </c>
       <c r="W44" t="n">
-        <v>103.7873371917578</v>
+        <v>103.787337191758</v>
       </c>
       <c r="X44" t="n">
-        <v>125.6735876606971</v>
+        <v>125.6735876606972</v>
       </c>
       <c r="Y44" t="n">
-        <v>148.1764407844408</v>
+        <v>148.176440784441</v>
       </c>
     </row>
     <row r="45">
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.118544613345571</v>
+        <v>3.118544613345713</v>
       </c>
       <c r="V45" t="n">
-        <v>6.539794281393199</v>
+        <v>6.539794281393341</v>
       </c>
       <c r="W45" t="n">
-        <v>32.59545694300255</v>
+        <v>32.59545694300269</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.24047499795679</v>
+        <v>1.240474997956932</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>54.54715351848703</v>
+        <v>54.54715351848717</v>
       </c>
       <c r="V46" t="n">
-        <v>10.99988855044086</v>
+        <v>10.999888550441</v>
       </c>
       <c r="W46" t="n">
-        <v>56.20158045532628</v>
+        <v>56.20158045532642</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>162.2448603199543</v>
+        <v>54.00790358650474</v>
       </c>
       <c r="C11" t="n">
-        <v>162.2448603199543</v>
+        <v>54.00790358650474</v>
       </c>
       <c r="D11" t="n">
-        <v>162.2448603199543</v>
+        <v>54.00790358650474</v>
       </c>
       <c r="E11" t="n">
-        <v>162.2448603199543</v>
+        <v>54.00790358650474</v>
       </c>
       <c r="F11" t="n">
-        <v>162.2448603199543</v>
+        <v>6.180162051433431</v>
       </c>
       <c r="G11" t="n">
-        <v>84.21251118569388</v>
+        <v>6.180162051433431</v>
       </c>
       <c r="H11" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433431</v>
       </c>
       <c r="I11" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433431</v>
       </c>
       <c r="J11" t="n">
-        <v>67.2993238540315</v>
+        <v>6.180162051433431</v>
       </c>
       <c r="K11" t="n">
-        <v>67.2993238540315</v>
+        <v>6.180162051433431</v>
       </c>
       <c r="L11" t="n">
-        <v>143.7788292405202</v>
+        <v>82.65966743792214</v>
       </c>
       <c r="M11" t="n">
-        <v>220.2583346270088</v>
+        <v>159.1391728244108</v>
       </c>
       <c r="N11" t="n">
-        <v>296.7378400134975</v>
+        <v>232.5285971851828</v>
       </c>
       <c r="O11" t="n">
-        <v>296.7378400134975</v>
+        <v>309.0081025716715</v>
       </c>
       <c r="P11" t="n">
-        <v>296.7378400134975</v>
+        <v>309.0081025716715</v>
       </c>
       <c r="Q11" t="n">
-        <v>296.7378400134975</v>
+        <v>309.0081025716715</v>
       </c>
       <c r="R11" t="n">
-        <v>309.0081025716714</v>
+        <v>309.0081025716715</v>
       </c>
       <c r="S11" t="n">
-        <v>309.0081025716714</v>
+        <v>288.1049509892862</v>
       </c>
       <c r="T11" t="n">
-        <v>309.0081025716714</v>
+        <v>288.1049509892862</v>
       </c>
       <c r="U11" t="n">
-        <v>309.0081025716714</v>
+        <v>288.1049509892862</v>
       </c>
       <c r="V11" t="n">
-        <v>230.9757534374109</v>
+        <v>288.1049509892862</v>
       </c>
       <c r="W11" t="n">
-        <v>230.9757534374109</v>
+        <v>210.0726018550257</v>
       </c>
       <c r="X11" t="n">
-        <v>162.2448603199543</v>
+        <v>132.0402527207652</v>
       </c>
       <c r="Y11" t="n">
-        <v>162.2448603199543</v>
+        <v>54.00790358650474</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.69658426090878</v>
+        <v>6.180162051433431</v>
       </c>
       <c r="C12" t="n">
-        <v>35.69658426090878</v>
+        <v>6.180162051433431</v>
       </c>
       <c r="D12" t="n">
-        <v>35.69658426090878</v>
+        <v>6.180162051433431</v>
       </c>
       <c r="E12" t="n">
-        <v>35.69658426090878</v>
+        <v>40.57027759319627</v>
       </c>
       <c r="F12" t="n">
-        <v>35.69658426090878</v>
+        <v>77.2239316421028</v>
       </c>
       <c r="G12" t="n">
-        <v>35.69658426090878</v>
+        <v>77.2239316421028</v>
       </c>
       <c r="H12" t="n">
-        <v>35.69658426090878</v>
+        <v>77.2239316421028</v>
       </c>
       <c r="I12" t="n">
-        <v>35.69658426090878</v>
+        <v>77.2239316421028</v>
       </c>
       <c r="J12" t="n">
-        <v>35.69658426090878</v>
+        <v>77.2239316421028</v>
       </c>
       <c r="K12" t="n">
-        <v>35.69658426090878</v>
+        <v>77.2239316421028</v>
       </c>
       <c r="L12" t="n">
-        <v>35.69658426090878</v>
+        <v>77.2239316421028</v>
       </c>
       <c r="M12" t="n">
-        <v>35.69658426090878</v>
+        <v>77.2239316421028</v>
       </c>
       <c r="N12" t="n">
-        <v>35.69658426090878</v>
+        <v>77.2239316421028</v>
       </c>
       <c r="O12" t="n">
-        <v>97.14038818360947</v>
+        <v>77.2239316421028</v>
       </c>
       <c r="P12" t="n">
-        <v>97.14038818360947</v>
+        <v>153.7034370285915</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.14038818360947</v>
+        <v>153.7034370285915</v>
       </c>
       <c r="R12" t="n">
-        <v>168.6392800121987</v>
+        <v>153.7034370285915</v>
       </c>
       <c r="S12" t="n">
-        <v>168.6392800121987</v>
+        <v>168.6392800121982</v>
       </c>
       <c r="T12" t="n">
-        <v>160.1731568828893</v>
+        <v>160.1731568828889</v>
       </c>
       <c r="U12" t="n">
-        <v>129.2008245987176</v>
+        <v>129.2008245987173</v>
       </c>
       <c r="V12" t="n">
-        <v>94.77268456904332</v>
+        <v>94.77268456904308</v>
       </c>
       <c r="W12" t="n">
-        <v>34.02569336602623</v>
+        <v>34.02569336602607</v>
       </c>
       <c r="X12" t="n">
-        <v>23.16927704941418</v>
+        <v>23.1692770494141</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433431</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.180162051433427</v>
+        <v>41.39400214801978</v>
       </c>
       <c r="C13" t="n">
-        <v>6.180162051433427</v>
+        <v>41.39400214801978</v>
       </c>
       <c r="D13" t="n">
-        <v>6.180162051433427</v>
+        <v>102.1625900629807</v>
       </c>
       <c r="E13" t="n">
-        <v>6.180162051433427</v>
+        <v>119.4019858454201</v>
       </c>
       <c r="F13" t="n">
-        <v>6.180162051433427</v>
+        <v>186.3637841123224</v>
       </c>
       <c r="G13" t="n">
-        <v>6.180162051433427</v>
+        <v>223.8544528092679</v>
       </c>
       <c r="H13" t="n">
-        <v>46.55808984561794</v>
+        <v>264.2323806034525</v>
       </c>
       <c r="I13" t="n">
-        <v>88.00415486856764</v>
+        <v>305.6784456264023</v>
       </c>
       <c r="J13" t="n">
-        <v>152.2432452557995</v>
+        <v>305.6784456264023</v>
       </c>
       <c r="K13" t="n">
-        <v>222.4884376415616</v>
+        <v>305.6784456264023</v>
       </c>
       <c r="L13" t="n">
-        <v>222.4884376415616</v>
+        <v>305.6784456264023</v>
       </c>
       <c r="M13" t="n">
-        <v>222.4884376415616</v>
+        <v>305.6784456264023</v>
       </c>
       <c r="N13" t="n">
-        <v>222.4884376415616</v>
+        <v>305.6784456264023</v>
       </c>
       <c r="O13" t="n">
-        <v>222.4884376415616</v>
+        <v>305.6784456264023</v>
       </c>
       <c r="P13" t="n">
-        <v>273.7942624750855</v>
+        <v>305.6784456264023</v>
       </c>
       <c r="Q13" t="n">
-        <v>273.7942624750855</v>
+        <v>305.6784456264023</v>
       </c>
       <c r="R13" t="n">
-        <v>273.7942624750855</v>
+        <v>309.0081025716715</v>
       </c>
       <c r="S13" t="n">
-        <v>244.7189702064581</v>
+        <v>279.9328103030442</v>
       </c>
       <c r="T13" t="n">
-        <v>227.3706750156986</v>
+        <v>262.5845151122848</v>
       </c>
       <c r="U13" t="n">
-        <v>149.3383258814382</v>
+        <v>184.5521659780243</v>
       </c>
       <c r="V13" t="n">
-        <v>110.4050401254531</v>
+        <v>145.6188802220393</v>
       </c>
       <c r="W13" t="n">
-        <v>32.37269099119263</v>
+        <v>67.58653108777881</v>
       </c>
       <c r="X13" t="n">
-        <v>16.86320298895237</v>
+        <v>52.07704308553863</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.180162051433427</v>
+        <v>41.39400214801978</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>196.5969142254773</v>
+        <v>84.21251118569388</v>
       </c>
       <c r="C14" t="n">
-        <v>196.5969142254773</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="D14" t="n">
-        <v>196.5969142254773</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="E14" t="n">
-        <v>196.5969142254773</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="F14" t="n">
-        <v>196.5969142254773</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="G14" t="n">
-        <v>118.5645650912168</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="H14" t="n">
-        <v>40.53221595695639</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="I14" t="n">
         <v>6.180162051433427</v>
       </c>
       <c r="J14" t="n">
-        <v>82.6596674379221</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="K14" t="n">
-        <v>82.6596674379221</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="L14" t="n">
         <v>82.6596674379221</v>
@@ -5291,10 +5291,10 @@
         <v>232.5285971851827</v>
       </c>
       <c r="O14" t="n">
-        <v>232.5285971851827</v>
+        <v>309.0081025716714</v>
       </c>
       <c r="P14" t="n">
-        <v>232.5285971851827</v>
+        <v>309.0081025716714</v>
       </c>
       <c r="Q14" t="n">
         <v>309.0081025716714</v>
@@ -5303,25 +5303,25 @@
         <v>309.0081025716714</v>
       </c>
       <c r="S14" t="n">
-        <v>288.1049509892858</v>
+        <v>309.0081025716714</v>
       </c>
       <c r="T14" t="n">
-        <v>288.1049509892858</v>
+        <v>292.9966953508318</v>
       </c>
       <c r="U14" t="n">
-        <v>288.1049509892858</v>
+        <v>248.9718730213606</v>
       </c>
       <c r="V14" t="n">
-        <v>288.1049509892858</v>
+        <v>248.9718730213606</v>
       </c>
       <c r="W14" t="n">
-        <v>210.0726018550254</v>
+        <v>248.9718730213606</v>
       </c>
       <c r="X14" t="n">
-        <v>210.0726018550254</v>
+        <v>170.9395238871001</v>
       </c>
       <c r="Y14" t="n">
-        <v>196.5969142254773</v>
+        <v>162.2448603199543</v>
       </c>
     </row>
     <row r="15">
@@ -5355,49 +5355,49 @@
         <v>6.180162051433427</v>
       </c>
       <c r="J15" t="n">
-        <v>6.180162051433427</v>
+        <v>18.38906049083437</v>
       </c>
       <c r="K15" t="n">
-        <v>6.180162051433427</v>
+        <v>92.15977462570952</v>
       </c>
       <c r="L15" t="n">
-        <v>6.180162051433427</v>
+        <v>92.15977462570952</v>
       </c>
       <c r="M15" t="n">
-        <v>6.180162051433427</v>
+        <v>92.15977462570952</v>
       </c>
       <c r="N15" t="n">
-        <v>82.20454520000288</v>
+        <v>168.6392800121982</v>
       </c>
       <c r="O15" t="n">
-        <v>82.20454520000288</v>
+        <v>168.6392800121982</v>
       </c>
       <c r="P15" t="n">
-        <v>82.20454520000288</v>
+        <v>168.6392800121982</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.20454520000288</v>
+        <v>168.6392800121982</v>
       </c>
       <c r="R15" t="n">
-        <v>153.7034370285921</v>
+        <v>168.6392800121982</v>
       </c>
       <c r="S15" t="n">
-        <v>168.6392800121987</v>
+        <v>168.6392800121982</v>
       </c>
       <c r="T15" t="n">
-        <v>160.1731568828893</v>
+        <v>160.1731568828889</v>
       </c>
       <c r="U15" t="n">
-        <v>129.2008245987176</v>
+        <v>129.2008245987173</v>
       </c>
       <c r="V15" t="n">
-        <v>94.77268456904332</v>
+        <v>94.77268456904307</v>
       </c>
       <c r="W15" t="n">
-        <v>34.02569336602623</v>
+        <v>34.02569336602606</v>
       </c>
       <c r="X15" t="n">
-        <v>23.16927704941418</v>
+        <v>23.1692770494141</v>
       </c>
       <c r="Y15" t="n">
         <v>6.180162051433427</v>
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.83882225627944</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="C16" t="n">
-        <v>34.83882225627944</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="D16" t="n">
-        <v>95.60741017124026</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="E16" t="n">
-        <v>95.60741017124026</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="F16" t="n">
-        <v>154.4796009610059</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="G16" t="n">
-        <v>191.9702696579513</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="H16" t="n">
-        <v>232.3481974521358</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="I16" t="n">
-        <v>273.7942624750855</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="J16" t="n">
-        <v>273.7942624750855</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="K16" t="n">
-        <v>273.7942624750855</v>
+        <v>6.180162051433427</v>
       </c>
       <c r="L16" t="n">
-        <v>273.7942624750855</v>
+        <v>75.36546834614241</v>
       </c>
       <c r="M16" t="n">
-        <v>273.7942624750855</v>
+        <v>136.7109132707133</v>
       </c>
       <c r="N16" t="n">
-        <v>273.7942624750855</v>
+        <v>213.1904186572019</v>
       </c>
       <c r="O16" t="n">
-        <v>273.7942624750855</v>
+        <v>213.1904186572019</v>
       </c>
       <c r="P16" t="n">
-        <v>273.7942624750855</v>
+        <v>273.7942624750851</v>
       </c>
       <c r="Q16" t="n">
-        <v>273.7942624750855</v>
+        <v>273.7942624750851</v>
       </c>
       <c r="R16" t="n">
-        <v>273.7942624750855</v>
+        <v>273.7942624750851</v>
       </c>
       <c r="S16" t="n">
-        <v>244.7189702064581</v>
+        <v>244.7189702064578</v>
       </c>
       <c r="T16" t="n">
-        <v>227.3706750156986</v>
+        <v>227.3706750156984</v>
       </c>
       <c r="U16" t="n">
-        <v>149.3383258814382</v>
+        <v>149.3383258814379</v>
       </c>
       <c r="V16" t="n">
-        <v>110.4050401254531</v>
+        <v>110.4050401254529</v>
       </c>
       <c r="W16" t="n">
-        <v>32.37269099119263</v>
+        <v>32.37269099119246</v>
       </c>
       <c r="X16" t="n">
-        <v>16.86320298895237</v>
+        <v>16.86320298895228</v>
       </c>
       <c r="Y16" t="n">
         <v>6.180162051433427</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>205.5069605376423</v>
+        <v>205.5069605376426</v>
       </c>
       <c r="C17" t="n">
-        <v>193.0735933099535</v>
+        <v>193.0735933099538</v>
       </c>
       <c r="D17" t="n">
-        <v>193.1966544516578</v>
+        <v>193.1966544516579</v>
       </c>
       <c r="E17" t="n">
-        <v>159.2749895669413</v>
+        <v>159.2749895669415</v>
       </c>
       <c r="F17" t="n">
-        <v>93.31257965356087</v>
+        <v>93.31257965356104</v>
       </c>
       <c r="G17" t="n">
         <v>15.28023051930028</v>
@@ -5510,43 +5510,43 @@
         <v>6.180162051433428</v>
       </c>
       <c r="I17" t="n">
-        <v>82.65966743792211</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="J17" t="n">
-        <v>82.65966743792211</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="K17" t="n">
         <v>82.65966743792211</v>
       </c>
       <c r="L17" t="n">
-        <v>82.65966743792211</v>
+        <v>159.1391728244108</v>
       </c>
       <c r="M17" t="n">
-        <v>82.65966743792211</v>
+        <v>159.1391728244108</v>
       </c>
       <c r="N17" t="n">
-        <v>82.65966743792211</v>
+        <v>235.6186782108995</v>
       </c>
       <c r="O17" t="n">
-        <v>82.65966743792211</v>
+        <v>235.6186782108995</v>
       </c>
       <c r="P17" t="n">
-        <v>82.65966743792211</v>
+        <v>309.0081025716714</v>
       </c>
       <c r="Q17" t="n">
-        <v>82.65966743792211</v>
+        <v>309.0081025716714</v>
       </c>
       <c r="R17" t="n">
-        <v>82.65966743792211</v>
+        <v>309.0081025716714</v>
       </c>
       <c r="S17" t="n">
-        <v>159.1391728244108</v>
+        <v>309.0081025716714</v>
       </c>
       <c r="T17" t="n">
-        <v>235.6186782108995</v>
+        <v>309.0081025716714</v>
       </c>
       <c r="U17" t="n">
-        <v>292.1615891572227</v>
+        <v>309.0081025716714</v>
       </c>
       <c r="V17" t="n">
         <v>309.0081025716714</v>
@@ -5555,10 +5555,10 @@
         <v>309.0081025716714</v>
       </c>
       <c r="X17" t="n">
-        <v>286.9007788656721</v>
+        <v>286.9007788656722</v>
       </c>
       <c r="Y17" t="n">
-        <v>242.0633004892246</v>
+        <v>242.0633004892247</v>
       </c>
     </row>
     <row r="18">
@@ -5735,55 +5735,55 @@
         <v>193.1966544516577</v>
       </c>
       <c r="E20" t="n">
-        <v>159.2749895669412</v>
+        <v>159.2749895669413</v>
       </c>
       <c r="F20" t="n">
-        <v>93.31257965356076</v>
+        <v>93.31257965356082</v>
       </c>
       <c r="G20" t="n">
         <v>15.28023051930028</v>
       </c>
       <c r="H20" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="I20" t="n">
-        <v>6.180162051433427</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="J20" t="n">
-        <v>82.6596674379221</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="K20" t="n">
-        <v>82.6596674379221</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="L20" t="n">
-        <v>82.6596674379221</v>
+        <v>159.1391728244108</v>
       </c>
       <c r="M20" t="n">
         <v>159.1391728244108</v>
       </c>
       <c r="N20" t="n">
-        <v>232.5285971851827</v>
+        <v>159.1391728244108</v>
       </c>
       <c r="O20" t="n">
-        <v>309.0081025716714</v>
+        <v>159.1391728244108</v>
       </c>
       <c r="P20" t="n">
-        <v>309.0081025716714</v>
+        <v>159.1391728244108</v>
       </c>
       <c r="Q20" t="n">
-        <v>309.0081025716714</v>
+        <v>159.1391728244108</v>
       </c>
       <c r="R20" t="n">
-        <v>309.0081025716714</v>
+        <v>159.1391728244108</v>
       </c>
       <c r="S20" t="n">
-        <v>309.0081025716714</v>
+        <v>235.6186782108995</v>
       </c>
       <c r="T20" t="n">
-        <v>309.0081025716714</v>
+        <v>235.6186782108995</v>
       </c>
       <c r="U20" t="n">
-        <v>309.0081025716714</v>
+        <v>292.1615891572227</v>
       </c>
       <c r="V20" t="n">
         <v>309.0081025716714</v>
@@ -5792,7 +5792,7 @@
         <v>309.0081025716714</v>
       </c>
       <c r="X20" t="n">
-        <v>286.9007788656721</v>
+        <v>286.9007788656722</v>
       </c>
       <c r="Y20" t="n">
         <v>242.0633004892246</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="C21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="D21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="E21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="F21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="G21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="H21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="I21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="J21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="K21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="L21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="M21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="N21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="O21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="P21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="R21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="S21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="T21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="U21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="V21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="W21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="X21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="C22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="D22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="E22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="F22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="G22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="H22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="I22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="J22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="K22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="L22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="M22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="N22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="O22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="P22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="R22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="S22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="T22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="U22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="V22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="W22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="X22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>205.5069605376423</v>
+        <v>205.5069605376422</v>
       </c>
       <c r="C23" t="n">
-        <v>193.0735933099535</v>
+        <v>193.0735933099534</v>
       </c>
       <c r="D23" t="n">
         <v>193.1966544516577</v>
       </c>
       <c r="E23" t="n">
-        <v>159.2749895669412</v>
+        <v>159.2749895669413</v>
       </c>
       <c r="F23" t="n">
-        <v>93.31257965356076</v>
+        <v>93.31257965356082</v>
       </c>
       <c r="G23" t="n">
         <v>15.28023051930028</v>
       </c>
       <c r="H23" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="I23" t="n">
-        <v>6.180162051433427</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="J23" t="n">
-        <v>6.180162051433427</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="K23" t="n">
-        <v>6.180162051433427</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="L23" t="n">
-        <v>6.180162051433427</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="M23" t="n">
-        <v>82.6596674379221</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="N23" t="n">
-        <v>82.6596674379221</v>
+        <v>82.65966743792211</v>
       </c>
       <c r="O23" t="n">
-        <v>82.6596674379221</v>
+        <v>159.1391728244108</v>
       </c>
       <c r="P23" t="n">
-        <v>82.6596674379221</v>
+        <v>159.1391728244108</v>
       </c>
       <c r="Q23" t="n">
-        <v>82.6596674379221</v>
+        <v>232.5285971851827</v>
       </c>
       <c r="R23" t="n">
-        <v>82.6596674379221</v>
+        <v>232.5285971851827</v>
       </c>
       <c r="S23" t="n">
-        <v>139.2025783842453</v>
+        <v>232.5285971851827</v>
       </c>
       <c r="T23" t="n">
-        <v>215.682083770734</v>
+        <v>309.0081025716714</v>
       </c>
       <c r="U23" t="n">
-        <v>292.1615891572226</v>
+        <v>309.0081025716714</v>
       </c>
       <c r="V23" t="n">
         <v>309.0081025716714</v>
       </c>
       <c r="W23" t="n">
-        <v>309.0081025716714</v>
+        <v>309.0081025716713</v>
       </c>
       <c r="X23" t="n">
-        <v>286.9007788656721</v>
+        <v>286.900778865672</v>
       </c>
       <c r="Y23" t="n">
-        <v>242.0633004892246</v>
+        <v>242.0633004892244</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="C24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="D24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="E24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="F24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="G24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="H24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="I24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="J24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="K24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="L24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="M24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="N24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="O24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="P24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="R24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="S24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="T24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="U24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="V24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="W24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="X24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="C25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="D25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="E25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="F25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="G25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="H25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="I25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="J25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="K25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="L25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="M25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="N25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="O25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="P25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="R25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="S25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="T25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="U25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="V25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="W25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="X25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.180162051433427</v>
+        <v>6.180162051433428</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.727917058218</v>
+        <v>1024.727917058217</v>
       </c>
       <c r="C26" t="n">
-        <v>886.0216586202814</v>
+        <v>886.0216586202807</v>
       </c>
       <c r="D26" t="n">
-        <v>759.8743271913867</v>
+        <v>759.874327191386</v>
       </c>
       <c r="E26" t="n">
-        <v>599.6797710964223</v>
+        <v>599.6797710964216</v>
       </c>
       <c r="F26" t="n">
-        <v>407.444469972794</v>
+        <v>407.4444699727933</v>
       </c>
       <c r="G26" t="n">
-        <v>199.423704640045</v>
+        <v>199.4237046400453</v>
       </c>
       <c r="H26" t="n">
-        <v>64.05074496193055</v>
+        <v>64.05074496193058</v>
       </c>
       <c r="I26" t="n">
         <v>36.08378119943466</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7780553930116</v>
+        <v>171.7780553930115</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3003342987345</v>
+        <v>377.3003342987344</v>
       </c>
       <c r="L26" t="n">
-        <v>636.5461568246882</v>
+        <v>636.5461568246881</v>
       </c>
       <c r="M26" t="n">
         <v>930.132224948067</v>
@@ -6257,16 +6257,16 @@
         <v>1780.044681454562</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.404949268118</v>
+        <v>1742.404949268117</v>
       </c>
       <c r="V26" t="n">
         <v>1633.320623933238</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.047732722991</v>
+        <v>1507.04773272299</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.667517806744</v>
+        <v>1358.667517806743</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.557148220048</v>
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.08378119943466</v>
+        <v>196.8638974384029</v>
       </c>
       <c r="C27" t="n">
-        <v>36.08378119943466</v>
+        <v>196.8638974384029</v>
       </c>
       <c r="D27" t="n">
         <v>36.08378119943466</v>
@@ -6315,40 +6315,40 @@
         <v>376.8440546899359</v>
       </c>
       <c r="N27" t="n">
-        <v>583.3076738423682</v>
+        <v>443.6455063614281</v>
       </c>
       <c r="O27" t="n">
-        <v>661.5417860635549</v>
+        <v>576.7722995835172</v>
       </c>
       <c r="P27" t="n">
-        <v>661.5417860635549</v>
+        <v>661.5417860635428</v>
       </c>
       <c r="Q27" t="n">
-        <v>661.5417860635549</v>
+        <v>655.3834571965341</v>
       </c>
       <c r="R27" t="n">
-        <v>661.5417860635549</v>
+        <v>655.3834571965341</v>
       </c>
       <c r="S27" t="n">
-        <v>661.5417860635549</v>
+        <v>536.0491427507245</v>
       </c>
       <c r="T27" t="n">
-        <v>659.4607530772726</v>
+        <v>318.9314415547236</v>
       </c>
       <c r="U27" t="n">
-        <v>634.873510936128</v>
+        <v>294.344199413579</v>
       </c>
       <c r="V27" t="n">
-        <v>535.5943697074007</v>
+        <v>266.3011495269317</v>
       </c>
       <c r="W27" t="n">
-        <v>481.2324686474107</v>
+        <v>211.9392484669416</v>
       </c>
       <c r="X27" t="n">
-        <v>261.724474264107</v>
+        <v>207.4679222933566</v>
       </c>
       <c r="Y27" t="n">
-        <v>36.08378119943466</v>
+        <v>196.8638974384029</v>
       </c>
     </row>
     <row r="28">
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.00046825346151</v>
+        <v>36.08378119943466</v>
       </c>
       <c r="C28" t="n">
-        <v>116.9652976035541</v>
+        <v>36.08378119943466</v>
       </c>
       <c r="D28" t="n">
-        <v>116.9652976035541</v>
+        <v>36.08378119943466</v>
       </c>
       <c r="E28" t="n">
-        <v>116.9652976035541</v>
+        <v>36.08378119943466</v>
       </c>
       <c r="F28" t="n">
-        <v>116.9652976035541</v>
+        <v>36.08378119943466</v>
       </c>
       <c r="G28" t="n">
-        <v>116.9652976035541</v>
+        <v>36.08378119943466</v>
       </c>
       <c r="H28" t="n">
-        <v>116.9652976035541</v>
+        <v>36.08378119943466</v>
       </c>
       <c r="I28" t="n">
-        <v>116.9652976035541</v>
+        <v>36.08378119943466</v>
       </c>
       <c r="J28" t="n">
-        <v>116.9652976035541</v>
+        <v>36.08378119943466</v>
       </c>
       <c r="K28" t="n">
-        <v>116.9652976035541</v>
+        <v>36.08378119943466</v>
       </c>
       <c r="L28" t="n">
-        <v>116.9652976035541</v>
+        <v>36.08378119943466</v>
       </c>
       <c r="M28" t="n">
-        <v>116.9652976035541</v>
+        <v>36.08378119943466</v>
       </c>
       <c r="N28" t="n">
-        <v>116.9652976035541</v>
+        <v>231.2551053244262</v>
       </c>
       <c r="O28" t="n">
-        <v>116.9652976035541</v>
+        <v>231.2551053244262</v>
       </c>
       <c r="P28" t="n">
-        <v>185.2162032251006</v>
+        <v>231.2551053244262</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.4495348481057</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="R28" t="n">
-        <v>270.4495348481057</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="S28" t="n">
-        <v>247.7593327225053</v>
+        <v>247.7593327225055</v>
       </c>
       <c r="T28" t="n">
-        <v>236.7961276747729</v>
+        <v>236.7961276747731</v>
       </c>
       <c r="U28" t="n">
-        <v>160.2607957304552</v>
+        <v>160.2607957304553</v>
       </c>
       <c r="V28" t="n">
-        <v>127.7126001174971</v>
+        <v>127.7126001174972</v>
       </c>
       <c r="W28" t="n">
-        <v>49.50612985313972</v>
+        <v>49.50612985313978</v>
       </c>
       <c r="X28" t="n">
-        <v>40.38173199392653</v>
+        <v>40.38173199392656</v>
       </c>
       <c r="Y28" t="n">
         <v>36.08378119943466</v>
@@ -6440,25 +6440,25 @@
         <v>1024.727917058218</v>
       </c>
       <c r="C29" t="n">
-        <v>886.0216586202811</v>
+        <v>886.0216586202814</v>
       </c>
       <c r="D29" t="n">
-        <v>759.8743271913863</v>
+        <v>759.8743271913866</v>
       </c>
       <c r="E29" t="n">
-        <v>599.679771096422</v>
+        <v>599.6797710964222</v>
       </c>
       <c r="F29" t="n">
-        <v>407.4444699727937</v>
+        <v>407.4444699727939</v>
       </c>
       <c r="G29" t="n">
         <v>199.4237046400449</v>
       </c>
       <c r="H29" t="n">
-        <v>64.05074496193015</v>
+        <v>64.05074496193059</v>
       </c>
       <c r="I29" t="n">
-        <v>36.08378119943466</v>
+        <v>36.08378119943468</v>
       </c>
       <c r="J29" t="n">
         <v>171.7780553930116</v>
@@ -6470,10 +6470,10 @@
         <v>636.5461568246882</v>
       </c>
       <c r="M29" t="n">
-        <v>930.1322249480671</v>
+        <v>930.132224948067</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.216110876224</v>
+        <v>1218.216110876225</v>
       </c>
       <c r="O29" t="n">
         <v>1465.081362215627</v>
@@ -6482,28 +6482,28 @@
         <v>1662.508410976687</v>
       </c>
       <c r="Q29" t="n">
-        <v>1785.660770564378</v>
+        <v>1785.660770564379</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.189059971733</v>
+        <v>1804.189059971734</v>
       </c>
       <c r="S29" t="n">
-        <v>1789.670998532374</v>
+        <v>1789.670998532376</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.044681454562</v>
+        <v>1780.044681454563</v>
       </c>
       <c r="U29" t="n">
         <v>1742.404949268118</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.320623933238</v>
+        <v>1633.320623933239</v>
       </c>
       <c r="W29" t="n">
         <v>1507.047732722991</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.667517806743</v>
+        <v>1358.667517806744</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.557148220048</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.51131403086849</v>
+        <v>531.2348800939351</v>
       </c>
       <c r="C30" t="n">
-        <v>88.51131403086849</v>
+        <v>531.2348800939351</v>
       </c>
       <c r="D30" t="n">
-        <v>88.51131403086849</v>
+        <v>370.4547638549668</v>
       </c>
       <c r="E30" t="n">
-        <v>88.51131403086849</v>
+        <v>196.8915599763812</v>
       </c>
       <c r="F30" t="n">
-        <v>88.51131403086849</v>
+        <v>88.5113140308685</v>
       </c>
       <c r="G30" t="n">
-        <v>88.51131403086849</v>
+        <v>88.5113140308685</v>
       </c>
       <c r="H30" t="n">
-        <v>88.51131403086849</v>
+        <v>88.5113140308685</v>
       </c>
       <c r="I30" t="n">
-        <v>88.51131403086849</v>
+        <v>88.5113140308685</v>
       </c>
       <c r="J30" t="n">
-        <v>36.08378119943466</v>
+        <v>36.08378119943468</v>
       </c>
       <c r="K30" t="n">
         <v>75.01482251945475</v>
@@ -6549,43 +6549,43 @@
         <v>193.6489542977307</v>
       </c>
       <c r="M30" t="n">
-        <v>376.8440546899359</v>
+        <v>237.1818872089998</v>
       </c>
       <c r="N30" t="n">
-        <v>443.6455063614407</v>
+        <v>443.6455063614322</v>
       </c>
       <c r="O30" t="n">
-        <v>576.7722995835298</v>
+        <v>576.7722995835213</v>
       </c>
       <c r="P30" t="n">
-        <v>661.5417860635554</v>
+        <v>661.5417860635469</v>
       </c>
       <c r="Q30" t="n">
-        <v>661.5417860635554</v>
+        <v>655.3834571965382</v>
       </c>
       <c r="R30" t="n">
-        <v>661.5417860635554</v>
+        <v>655.3834571965382</v>
       </c>
       <c r="S30" t="n">
-        <v>661.5417860635554</v>
+        <v>655.3834571965382</v>
       </c>
       <c r="T30" t="n">
-        <v>659.460753077273</v>
+        <v>653.3024242102558</v>
       </c>
       <c r="U30" t="n">
-        <v>419.8368427264098</v>
+        <v>628.7151820691112</v>
       </c>
       <c r="V30" t="n">
-        <v>176.7571246300438</v>
+        <v>600.6721321824639</v>
       </c>
       <c r="W30" t="n">
-        <v>122.3952235700538</v>
+        <v>546.3102311224739</v>
       </c>
       <c r="X30" t="n">
-        <v>117.9238973964688</v>
+        <v>541.8389049488889</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.51131403086849</v>
+        <v>531.2348800939351</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>71.00046825346151</v>
+        <v>36.08378119943468</v>
       </c>
       <c r="C31" t="n">
-        <v>116.9652976035541</v>
+        <v>36.08378119943468</v>
       </c>
       <c r="D31" t="n">
-        <v>183.9919123676958</v>
+        <v>90.77543117127826</v>
       </c>
       <c r="E31" t="n">
-        <v>214.2258964102904</v>
+        <v>90.77543117127826</v>
       </c>
       <c r="F31" t="n">
-        <v>214.2258964102904</v>
+        <v>90.77543117127826</v>
       </c>
       <c r="G31" t="n">
-        <v>214.2258964102904</v>
+        <v>90.77543117127826</v>
       </c>
       <c r="H31" t="n">
-        <v>260.8618510536558</v>
+        <v>90.77543117127826</v>
       </c>
       <c r="I31" t="n">
-        <v>260.8618510536558</v>
+        <v>90.77543117127826</v>
       </c>
       <c r="J31" t="n">
-        <v>260.8618510536558</v>
+        <v>90.77543117127826</v>
       </c>
       <c r="K31" t="n">
-        <v>260.8618510536558</v>
+        <v>90.77543117127826</v>
       </c>
       <c r="L31" t="n">
-        <v>260.8618510536558</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="M31" t="n">
-        <v>260.8618510536558</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="N31" t="n">
-        <v>260.8618510536558</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="O31" t="n">
-        <v>260.8618510536558</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="P31" t="n">
-        <v>260.8618510536558</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.8618510536558</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="R31" t="n">
-        <v>270.4495348481057</v>
+        <v>270.4495348481059</v>
       </c>
       <c r="S31" t="n">
-        <v>247.7593327225053</v>
+        <v>247.7593327225055</v>
       </c>
       <c r="T31" t="n">
-        <v>236.7961276747729</v>
+        <v>236.7961276747731</v>
       </c>
       <c r="U31" t="n">
-        <v>160.2607957304552</v>
+        <v>160.2607957304553</v>
       </c>
       <c r="V31" t="n">
-        <v>127.7126001174971</v>
+        <v>127.7126001174973</v>
       </c>
       <c r="W31" t="n">
-        <v>49.50612985313972</v>
+        <v>49.50612985313979</v>
       </c>
       <c r="X31" t="n">
-        <v>40.38173199392653</v>
+        <v>40.38173199392657</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.08378119943466</v>
+        <v>36.08378119943468</v>
       </c>
     </row>
     <row r="32">
@@ -6677,37 +6677,37 @@
         <v>1024.727917058218</v>
       </c>
       <c r="C32" t="n">
-        <v>886.0216586202815</v>
+        <v>886.0216586202808</v>
       </c>
       <c r="D32" t="n">
-        <v>759.8743271913868</v>
+        <v>759.8743271913861</v>
       </c>
       <c r="E32" t="n">
-        <v>599.6797710964225</v>
+        <v>599.6797710964217</v>
       </c>
       <c r="F32" t="n">
-        <v>407.4444699727943</v>
+        <v>407.4444699727935</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4237046400451</v>
+        <v>199.4237046400445</v>
       </c>
       <c r="H32" t="n">
-        <v>64.05074496193049</v>
+        <v>64.05074496192969</v>
       </c>
       <c r="I32" t="n">
-        <v>36.08378119943466</v>
+        <v>36.08378119943468</v>
       </c>
       <c r="J32" t="n">
         <v>171.7780553930116</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3003342987346</v>
+        <v>377.3003342987345</v>
       </c>
       <c r="L32" t="n">
-        <v>636.546156824688</v>
+        <v>636.5461568246881</v>
       </c>
       <c r="M32" t="n">
-        <v>930.1322249480669</v>
+        <v>930.132224948067</v>
       </c>
       <c r="N32" t="n">
         <v>1218.216110876224</v>
@@ -6716,19 +6716,19 @@
         <v>1465.081362215627</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.508410976686</v>
+        <v>1662.508410976687</v>
       </c>
       <c r="Q32" t="n">
-        <v>1785.660770564378</v>
+        <v>1785.660770564379</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.189059971733</v>
+        <v>1804.189059971734</v>
       </c>
       <c r="S32" t="n">
         <v>1789.670998532375</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.044681454562</v>
+        <v>1780.044681454563</v>
       </c>
       <c r="U32" t="n">
         <v>1742.404949268118</v>
@@ -6737,10 +6737,10 @@
         <v>1633.320623933238</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.047732722991</v>
+        <v>1507.04773272299</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.667517806744</v>
+        <v>1358.667517806743</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.557148220048</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.08378119943466</v>
+        <v>313.2712687104388</v>
       </c>
       <c r="C33" t="n">
-        <v>36.08378119943466</v>
+        <v>313.2712687104388</v>
       </c>
       <c r="D33" t="n">
-        <v>36.08378119943466</v>
+        <v>313.2712687104388</v>
       </c>
       <c r="E33" t="n">
-        <v>36.08378119943466</v>
+        <v>313.2712687104388</v>
       </c>
       <c r="F33" t="n">
-        <v>36.08378119943466</v>
+        <v>313.2712687104388</v>
       </c>
       <c r="G33" t="n">
-        <v>36.08378119943466</v>
+        <v>163.0303080218427</v>
       </c>
       <c r="H33" t="n">
-        <v>36.08378119943466</v>
+        <v>36.08378119943468</v>
       </c>
       <c r="I33" t="n">
-        <v>36.08378119943466</v>
+        <v>36.08378119943468</v>
       </c>
       <c r="J33" t="n">
-        <v>36.08378119943466</v>
+        <v>36.08378119943468</v>
       </c>
       <c r="K33" t="n">
-        <v>36.08378119943466</v>
+        <v>75.01482251945475</v>
       </c>
       <c r="L33" t="n">
-        <v>53.98678681680011</v>
+        <v>193.6489542977307</v>
       </c>
       <c r="M33" t="n">
-        <v>237.1818872090053</v>
+        <v>376.8440546899359</v>
       </c>
       <c r="N33" t="n">
-        <v>443.6455063614376</v>
+        <v>443.6455063614412</v>
       </c>
       <c r="O33" t="n">
-        <v>576.7722995835268</v>
+        <v>576.7722995835303</v>
       </c>
       <c r="P33" t="n">
-        <v>661.5417860635523</v>
+        <v>661.5417860635558</v>
       </c>
       <c r="Q33" t="n">
-        <v>661.5417860635523</v>
+        <v>661.5417860635558</v>
       </c>
       <c r="R33" t="n">
-        <v>661.5417860635523</v>
+        <v>661.5417860635558</v>
       </c>
       <c r="S33" t="n">
-        <v>661.5417860635523</v>
+        <v>652.4565140227603</v>
       </c>
       <c r="T33" t="n">
-        <v>444.4240848675513</v>
+        <v>435.3388128267594</v>
       </c>
       <c r="U33" t="n">
-        <v>204.800174516688</v>
+        <v>410.7515706856148</v>
       </c>
       <c r="V33" t="n">
-        <v>176.7571246300408</v>
+        <v>382.7085207989675</v>
       </c>
       <c r="W33" t="n">
-        <v>122.3952235700509</v>
+        <v>328.3466197389775</v>
       </c>
       <c r="X33" t="n">
-        <v>46.68780605438829</v>
+        <v>323.8752935653925</v>
       </c>
       <c r="Y33" t="n">
-        <v>36.08378119943466</v>
+        <v>313.2712687104388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.00046825346156</v>
+        <v>36.08378119943468</v>
       </c>
       <c r="C34" t="n">
-        <v>71.00046825346156</v>
+        <v>82.0486105495273</v>
       </c>
       <c r="D34" t="n">
-        <v>71.00046825346156</v>
+        <v>82.0486105495273</v>
       </c>
       <c r="E34" t="n">
-        <v>71.00046825346156</v>
+        <v>152.5466692617698</v>
       </c>
       <c r="F34" t="n">
-        <v>71.00046825346156</v>
+        <v>152.5466692617698</v>
       </c>
       <c r="G34" t="n">
-        <v>71.00046825346156</v>
+        <v>196.2953648078961</v>
       </c>
       <c r="H34" t="n">
-        <v>117.636422896827</v>
+        <v>242.9313194512614</v>
       </c>
       <c r="I34" t="n">
-        <v>117.636422896827</v>
+        <v>260.8618510536558</v>
       </c>
       <c r="J34" t="n">
-        <v>117.636422896827</v>
+        <v>260.8618510536558</v>
       </c>
       <c r="K34" t="n">
-        <v>117.636422896827</v>
+        <v>260.8618510536558</v>
       </c>
       <c r="L34" t="n">
-        <v>117.636422896827</v>
+        <v>260.8618510536558</v>
       </c>
       <c r="M34" t="n">
-        <v>260.8618510536553</v>
+        <v>260.8618510536558</v>
       </c>
       <c r="N34" t="n">
-        <v>260.8618510536553</v>
+        <v>260.8618510536558</v>
       </c>
       <c r="O34" t="n">
-        <v>260.8618510536553</v>
+        <v>260.8618510536558</v>
       </c>
       <c r="P34" t="n">
-        <v>260.8618510536553</v>
+        <v>260.8618510536558</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.8618510536553</v>
+        <v>260.8618510536558</v>
       </c>
       <c r="R34" t="n">
-        <v>270.4495348481053</v>
+        <v>270.4495348481057</v>
       </c>
       <c r="S34" t="n">
-        <v>247.759332722505</v>
+        <v>247.7593327225053</v>
       </c>
       <c r="T34" t="n">
-        <v>236.7961276747727</v>
+        <v>236.796127674773</v>
       </c>
       <c r="U34" t="n">
-        <v>160.2607957304549</v>
+        <v>160.2607957304552</v>
       </c>
       <c r="V34" t="n">
-        <v>127.712600117497</v>
+        <v>127.7126001174972</v>
       </c>
       <c r="W34" t="n">
-        <v>49.5061298531396</v>
+        <v>49.50612985313973</v>
       </c>
       <c r="X34" t="n">
-        <v>40.38173199392647</v>
+        <v>40.38173199392654</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.08378119943466</v>
+        <v>36.08378119943468</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>868.4873754666717</v>
+        <v>868.4873754666721</v>
       </c>
       <c r="C35" t="n">
-        <v>751.2183141058938</v>
+        <v>751.2183141058941</v>
       </c>
       <c r="D35" t="n">
-        <v>646.5081797541582</v>
+        <v>646.5081797541584</v>
       </c>
       <c r="E35" t="n">
-        <v>507.7508207363529</v>
+        <v>507.7508207363531</v>
       </c>
       <c r="F35" t="n">
-        <v>336.9527166898837</v>
+        <v>336.9527166898838</v>
       </c>
       <c r="G35" t="n">
         <v>150.3691484342938</v>
       </c>
       <c r="H35" t="n">
-        <v>36.43338583333801</v>
+        <v>36.43338583333811</v>
       </c>
       <c r="I35" t="n">
-        <v>29.90361914800123</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="J35" t="n">
-        <v>186.6084901969018</v>
+        <v>186.6084901969017</v>
       </c>
       <c r="K35" t="n">
-        <v>413.1413659579483</v>
+        <v>413.1413659579482</v>
       </c>
       <c r="L35" t="n">
-        <v>693.3977853392257</v>
+        <v>693.3977853392255</v>
       </c>
       <c r="M35" t="n">
-        <v>879.8973561107989</v>
+        <v>1007.994450317928</v>
       </c>
       <c r="N35" t="n">
-        <v>1188.99183889428</v>
+        <v>1317.088933101409</v>
       </c>
       <c r="O35" t="n">
-        <v>1456.867687089006</v>
+        <v>1353.196745928466</v>
       </c>
       <c r="P35" t="n">
-        <v>1468.86502543922</v>
+        <v>1437.284782811416</v>
       </c>
       <c r="Q35" t="n">
-        <v>1476.823669074093</v>
+        <v>1437.284782811416</v>
       </c>
       <c r="R35" t="n">
-        <v>1476.823669074093</v>
+        <v>1476.823669074094</v>
       </c>
       <c r="S35" t="n">
-        <v>1483.605113912702</v>
+        <v>1483.605113912703</v>
       </c>
       <c r="T35" t="n">
-        <v>1495.180957400061</v>
+        <v>1495.180957400062</v>
       </c>
       <c r="U35" t="n">
-        <v>1478.978422290776</v>
+        <v>1478.978422290777</v>
       </c>
       <c r="V35" t="n">
-        <v>1391.331294033056</v>
+        <v>1391.331294033057</v>
       </c>
       <c r="W35" t="n">
-        <v>1286.495599899967</v>
+        <v>1286.495599899968</v>
       </c>
       <c r="X35" t="n">
-        <v>1159.552582060879</v>
+        <v>1159.55258206088</v>
       </c>
       <c r="Y35" t="n">
         <v>1009.879409551343</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.90361914800123</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="C36" t="n">
-        <v>29.90361914800123</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="D36" t="n">
-        <v>29.90361914800123</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="E36" t="n">
-        <v>29.90361914800123</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="F36" t="n">
-        <v>29.90361914800123</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="G36" t="n">
-        <v>29.90361914800123</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="H36" t="n">
-        <v>29.90361914800123</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="I36" t="n">
-        <v>29.90361914800123</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="J36" t="n">
-        <v>29.90361914800123</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="K36" t="n">
-        <v>29.90361914800123</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="L36" t="n">
-        <v>29.90361914800123</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="M36" t="n">
-        <v>72.58422100430576</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="N36" t="n">
-        <v>72.58422100430576</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="O36" t="n">
-        <v>72.58422100430576</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="P36" t="n">
-        <v>72.58422100430576</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="Q36" t="n">
-        <v>72.58422100430576</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="R36" t="n">
-        <v>72.58422100430576</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="S36" t="n">
-        <v>72.58422100430576</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="T36" t="n">
-        <v>72.58422100430576</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="U36" t="n">
-        <v>69.43417594032027</v>
+        <v>69.43417594032047</v>
       </c>
       <c r="V36" t="n">
-        <v>62.82832313083214</v>
+        <v>62.82832313083225</v>
       </c>
       <c r="W36" t="n">
-        <v>29.90361914800123</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="X36" t="n">
-        <v>29.90361914800123</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.90361914800123</v>
+        <v>29.90361914800124</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.09781916713308</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="C37" t="n">
-        <v>66.09781916713308</v>
+        <v>96.87904535341742</v>
       </c>
       <c r="D37" t="n">
-        <v>154.1350307865984</v>
+        <v>96.87904535341742</v>
       </c>
       <c r="E37" t="n">
-        <v>154.1350307865984</v>
+        <v>96.87904535341742</v>
       </c>
       <c r="F37" t="n">
-        <v>154.1350307865984</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="G37" t="n">
-        <v>154.1350307865984</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="H37" t="n">
-        <v>154.1350307865984</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="I37" t="n">
-        <v>154.1350307865984</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="J37" t="n">
-        <v>154.1350307865984</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="K37" t="n">
-        <v>154.1350307865984</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="L37" t="n">
-        <v>154.1350307865984</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="M37" t="n">
-        <v>154.1350307865984</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="N37" t="n">
-        <v>154.1350307865984</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="O37" t="n">
-        <v>154.1350307865984</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="P37" t="n">
-        <v>154.1350307865984</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="Q37" t="n">
-        <v>154.1350307865984</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="R37" t="n">
-        <v>154.1350307865984</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8820257381571</v>
+        <v>152.8820257381574</v>
       </c>
       <c r="T37" t="n">
-        <v>152.8820257381571</v>
+        <v>152.8820257381574</v>
       </c>
       <c r="U37" t="n">
-        <v>97.78389087099845</v>
+        <v>97.78389087099863</v>
       </c>
       <c r="V37" t="n">
-        <v>86.67289233519955</v>
+        <v>86.67289233519965</v>
       </c>
       <c r="W37" t="n">
-        <v>29.90361914800123</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="X37" t="n">
-        <v>29.90361914800123</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.90361914800123</v>
+        <v>29.90361914800124</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>868.4873754666712</v>
+        <v>868.4873754666721</v>
       </c>
       <c r="C38" t="n">
-        <v>751.2183141058938</v>
+        <v>751.2183141058945</v>
       </c>
       <c r="D38" t="n">
-        <v>646.5081797541579</v>
+        <v>646.5081797541586</v>
       </c>
       <c r="E38" t="n">
-        <v>507.7508207363522</v>
+        <v>507.7508207363531</v>
       </c>
       <c r="F38" t="n">
-        <v>336.952716689883</v>
+        <v>336.9527166898838</v>
       </c>
       <c r="G38" t="n">
-        <v>150.3691484342931</v>
+        <v>150.3691484342938</v>
       </c>
       <c r="H38" t="n">
-        <v>36.43338583333799</v>
+        <v>36.43338583333811</v>
       </c>
       <c r="I38" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="J38" t="n">
-        <v>142.2640519397054</v>
+        <v>78.12962963171293</v>
       </c>
       <c r="K38" t="n">
-        <v>368.796927700752</v>
+        <v>304.6625053927594</v>
       </c>
       <c r="L38" t="n">
-        <v>450.9930329898317</v>
+        <v>584.9189247740367</v>
       </c>
       <c r="M38" t="n">
-        <v>765.5896979685342</v>
+        <v>611.1436677464171</v>
       </c>
       <c r="N38" t="n">
-        <v>1074.684180752015</v>
+        <v>920.2381505298979</v>
       </c>
       <c r="O38" t="n">
-        <v>1074.684180752015</v>
+        <v>1188.113998724624</v>
       </c>
       <c r="P38" t="n">
-        <v>1293.121826368398</v>
+        <v>1299.903271207009</v>
       </c>
       <c r="Q38" t="n">
-        <v>1437.284782811414</v>
+        <v>1444.066227650025</v>
       </c>
       <c r="R38" t="n">
-        <v>1476.823669074092</v>
+        <v>1483.605113912703</v>
       </c>
       <c r="S38" t="n">
-        <v>1483.605113912701</v>
+        <v>1483.605113912703</v>
       </c>
       <c r="T38" t="n">
-        <v>1495.18095740006</v>
+        <v>1495.180957400062</v>
       </c>
       <c r="U38" t="n">
-        <v>1478.978422290776</v>
+        <v>1478.978422290777</v>
       </c>
       <c r="V38" t="n">
-        <v>1391.331294033055</v>
+        <v>1391.331294033057</v>
       </c>
       <c r="W38" t="n">
-        <v>1286.495599899967</v>
+        <v>1286.495599899968</v>
       </c>
       <c r="X38" t="n">
-        <v>1159.552582060879</v>
+        <v>1159.55258206088</v>
       </c>
       <c r="Y38" t="n">
-        <v>1009.879409551342</v>
+        <v>1009.879409551343</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="C39" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="D39" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="E39" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="F39" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="G39" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="H39" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="I39" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="J39" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="K39" t="n">
-        <v>68.8346604680213</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="L39" t="n">
-        <v>68.8346604680213</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="M39" t="n">
-        <v>72.58422100430575</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="N39" t="n">
-        <v>72.58422100430575</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="O39" t="n">
-        <v>72.58422100430575</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="P39" t="n">
-        <v>72.58422100430575</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="Q39" t="n">
-        <v>72.58422100430575</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="R39" t="n">
-        <v>72.58422100430575</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="S39" t="n">
-        <v>72.58422100430575</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="T39" t="n">
-        <v>72.58422100430575</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="U39" t="n">
-        <v>69.43417594032026</v>
+        <v>69.43417594032047</v>
       </c>
       <c r="V39" t="n">
-        <v>62.82832313083212</v>
+        <v>62.82832313083225</v>
       </c>
       <c r="W39" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="X39" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="C40" t="n">
-        <v>96.87904535341748</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="D40" t="n">
-        <v>96.87904535341748</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="E40" t="n">
-        <v>154.1350307865983</v>
+        <v>66.26256326421118</v>
       </c>
       <c r="F40" t="n">
-        <v>154.1350307865983</v>
+        <v>66.26256326421118</v>
       </c>
       <c r="G40" t="n">
-        <v>154.1350307865983</v>
+        <v>66.26256326421118</v>
       </c>
       <c r="H40" t="n">
-        <v>154.1350307865983</v>
+        <v>66.26256326421118</v>
       </c>
       <c r="I40" t="n">
-        <v>154.1350307865983</v>
+        <v>66.26256326421118</v>
       </c>
       <c r="J40" t="n">
-        <v>154.1350307865983</v>
+        <v>66.26256326421118</v>
       </c>
       <c r="K40" t="n">
-        <v>154.1350307865983</v>
+        <v>66.26256326421118</v>
       </c>
       <c r="L40" t="n">
-        <v>154.1350307865983</v>
+        <v>66.26256326421118</v>
       </c>
       <c r="M40" t="n">
-        <v>154.1350307865983</v>
+        <v>66.26256326421118</v>
       </c>
       <c r="N40" t="n">
-        <v>154.1350307865983</v>
+        <v>66.26256326421118</v>
       </c>
       <c r="O40" t="n">
-        <v>154.1350307865983</v>
+        <v>66.26256326421118</v>
       </c>
       <c r="P40" t="n">
-        <v>154.1350307865983</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="Q40" t="n">
-        <v>154.1350307865983</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="R40" t="n">
-        <v>154.1350307865983</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8820257381571</v>
+        <v>152.8820257381574</v>
       </c>
       <c r="T40" t="n">
-        <v>152.8820257381571</v>
+        <v>152.8820257381574</v>
       </c>
       <c r="U40" t="n">
-        <v>97.78389087099843</v>
+        <v>97.78389087099863</v>
       </c>
       <c r="V40" t="n">
-        <v>86.67289233519953</v>
+        <v>86.67289233519965</v>
       </c>
       <c r="W40" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="X40" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>868.487375466671</v>
+        <v>868.4873754666719</v>
       </c>
       <c r="C41" t="n">
-        <v>751.2183141058932</v>
+        <v>751.2183141058938</v>
       </c>
       <c r="D41" t="n">
-        <v>646.5081797541576</v>
+        <v>646.508179754158</v>
       </c>
       <c r="E41" t="n">
-        <v>507.7508207363525</v>
+        <v>507.7508207363527</v>
       </c>
       <c r="F41" t="n">
         <v>336.9527166898833</v>
       </c>
       <c r="G41" t="n">
-        <v>150.3691484342935</v>
+        <v>150.3691484342933</v>
       </c>
       <c r="H41" t="n">
-        <v>36.43338583333793</v>
+        <v>36.43338583333817</v>
       </c>
       <c r="I41" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="J41" t="n">
-        <v>186.6084901969018</v>
+        <v>100.7472654770775</v>
       </c>
       <c r="K41" t="n">
-        <v>413.1413659579484</v>
+        <v>327.2801412381239</v>
       </c>
       <c r="L41" t="n">
-        <v>425.4597629808209</v>
+        <v>327.2801412381239</v>
       </c>
       <c r="M41" t="n">
-        <v>740.0564279595235</v>
+        <v>641.8768062168263</v>
       </c>
       <c r="N41" t="n">
-        <v>1025.245978173672</v>
+        <v>950.9712890003068</v>
       </c>
       <c r="O41" t="n">
-        <v>1293.121826368398</v>
+        <v>1218.847137195033</v>
       </c>
       <c r="P41" t="n">
-        <v>1293.121826368398</v>
+        <v>1437.284782811416</v>
       </c>
       <c r="Q41" t="n">
-        <v>1437.284782811414</v>
+        <v>1437.284782811416</v>
       </c>
       <c r="R41" t="n">
-        <v>1476.823669074092</v>
+        <v>1476.823669074094</v>
       </c>
       <c r="S41" t="n">
-        <v>1483.605113912701</v>
+        <v>1483.605113912703</v>
       </c>
       <c r="T41" t="n">
-        <v>1495.18095740006</v>
+        <v>1495.180957400062</v>
       </c>
       <c r="U41" t="n">
-        <v>1478.978422290775</v>
+        <v>1478.978422290777</v>
       </c>
       <c r="V41" t="n">
-        <v>1391.331294033055</v>
+        <v>1391.331294033057</v>
       </c>
       <c r="W41" t="n">
-        <v>1286.495599899966</v>
+        <v>1286.495599899968</v>
       </c>
       <c r="X41" t="n">
-        <v>1159.552582060878</v>
+        <v>1159.55258206088</v>
       </c>
       <c r="Y41" t="n">
-        <v>1009.879409551342</v>
+        <v>1009.879409551343</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>72.58422100430558</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="C42" t="n">
-        <v>72.58422100430558</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="D42" t="n">
-        <v>72.58422100430558</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="E42" t="n">
-        <v>72.58422100430558</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="F42" t="n">
-        <v>72.58422100430558</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="G42" t="n">
-        <v>72.58422100430558</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="H42" t="n">
-        <v>72.58422100430558</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="I42" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430622</v>
       </c>
       <c r="J42" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430622</v>
       </c>
       <c r="K42" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430622</v>
       </c>
       <c r="L42" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430622</v>
       </c>
       <c r="M42" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430622</v>
       </c>
       <c r="N42" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430622</v>
       </c>
       <c r="O42" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430622</v>
       </c>
       <c r="P42" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430622</v>
       </c>
       <c r="Q42" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430622</v>
       </c>
       <c r="R42" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430622</v>
       </c>
       <c r="S42" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430622</v>
       </c>
       <c r="T42" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430622</v>
       </c>
       <c r="U42" t="n">
-        <v>69.43417594032015</v>
+        <v>69.43417594032059</v>
       </c>
       <c r="V42" t="n">
-        <v>62.82832313083206</v>
+        <v>62.8283231308323</v>
       </c>
       <c r="W42" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="X42" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.90361914800121</v>
+        <v>85.83090305735159</v>
       </c>
       <c r="C43" t="n">
-        <v>29.90361914800121</v>
+        <v>85.83090305735159</v>
       </c>
       <c r="D43" t="n">
-        <v>29.90361914800121</v>
+        <v>85.83090305735159</v>
       </c>
       <c r="E43" t="n">
-        <v>121.4122747155674</v>
+        <v>85.83090305735159</v>
       </c>
       <c r="F43" t="n">
-        <v>121.4122747155674</v>
+        <v>85.83090305735159</v>
       </c>
       <c r="G43" t="n">
-        <v>121.4122747155674</v>
+        <v>86.48847928791014</v>
       </c>
       <c r="H43" t="n">
-        <v>121.4122747155674</v>
+        <v>154.135030786599</v>
       </c>
       <c r="I43" t="n">
-        <v>154.1350307865981</v>
+        <v>154.135030786599</v>
       </c>
       <c r="J43" t="n">
-        <v>154.1350307865981</v>
+        <v>154.135030786599</v>
       </c>
       <c r="K43" t="n">
-        <v>154.1350307865981</v>
+        <v>154.135030786599</v>
       </c>
       <c r="L43" t="n">
-        <v>154.1350307865981</v>
+        <v>154.135030786599</v>
       </c>
       <c r="M43" t="n">
-        <v>154.1350307865981</v>
+        <v>154.135030786599</v>
       </c>
       <c r="N43" t="n">
-        <v>154.1350307865981</v>
+        <v>154.135030786599</v>
       </c>
       <c r="O43" t="n">
-        <v>154.1350307865981</v>
+        <v>154.135030786599</v>
       </c>
       <c r="P43" t="n">
-        <v>154.1350307865981</v>
+        <v>154.135030786599</v>
       </c>
       <c r="Q43" t="n">
-        <v>154.1350307865981</v>
+        <v>154.135030786599</v>
       </c>
       <c r="R43" t="n">
-        <v>154.1350307865981</v>
+        <v>154.135030786599</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8820257381569</v>
+        <v>152.8820257381576</v>
       </c>
       <c r="T43" t="n">
-        <v>152.8820257381569</v>
+        <v>152.8820257381576</v>
       </c>
       <c r="U43" t="n">
-        <v>97.78389087099832</v>
+        <v>97.78389087099876</v>
       </c>
       <c r="V43" t="n">
-        <v>86.67289233519948</v>
+        <v>86.67289233519971</v>
       </c>
       <c r="W43" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="X43" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>868.487375466671</v>
+        <v>868.4873754666721</v>
       </c>
       <c r="C44" t="n">
-        <v>751.2183141058933</v>
+        <v>751.2183141058945</v>
       </c>
       <c r="D44" t="n">
-        <v>646.5081797541577</v>
+        <v>646.5081797541586</v>
       </c>
       <c r="E44" t="n">
-        <v>507.7508207363525</v>
+        <v>507.750820736353</v>
       </c>
       <c r="F44" t="n">
-        <v>336.9527166898833</v>
+        <v>336.9527166898837</v>
       </c>
       <c r="G44" t="n">
-        <v>150.3691484342935</v>
+        <v>150.3691484342937</v>
       </c>
       <c r="H44" t="n">
-        <v>36.43338583333793</v>
+        <v>36.43338583333811</v>
       </c>
       <c r="I44" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="J44" t="n">
-        <v>78.12962963171304</v>
+        <v>88.13219517342046</v>
       </c>
       <c r="K44" t="n">
-        <v>304.6625053927596</v>
+        <v>134.6288007814996</v>
       </c>
       <c r="L44" t="n">
-        <v>584.918924774037</v>
+        <v>414.8852201627769</v>
       </c>
       <c r="M44" t="n">
-        <v>816.8104882808326</v>
+        <v>729.4818851414793</v>
       </c>
       <c r="N44" t="n">
-        <v>1125.904971064313</v>
+        <v>1038.57636792496</v>
       </c>
       <c r="O44" t="n">
-        <v>1393.78081925904</v>
+        <v>1074.684180752017</v>
       </c>
       <c r="P44" t="n">
-        <v>1476.823669074092</v>
+        <v>1293.121826368401</v>
       </c>
       <c r="Q44" t="n">
-        <v>1476.823669074092</v>
+        <v>1437.284782811416</v>
       </c>
       <c r="R44" t="n">
-        <v>1476.823669074092</v>
+        <v>1476.823669074094</v>
       </c>
       <c r="S44" t="n">
-        <v>1483.605113912701</v>
+        <v>1483.605113912703</v>
       </c>
       <c r="T44" t="n">
-        <v>1495.18095740006</v>
+        <v>1495.180957400062</v>
       </c>
       <c r="U44" t="n">
-        <v>1478.978422290775</v>
+        <v>1478.978422290777</v>
       </c>
       <c r="V44" t="n">
-        <v>1391.331294033055</v>
+        <v>1391.331294033057</v>
       </c>
       <c r="W44" t="n">
-        <v>1286.495599899966</v>
+        <v>1286.495599899968</v>
       </c>
       <c r="X44" t="n">
-        <v>1159.552582060878</v>
+        <v>1159.55258206088</v>
       </c>
       <c r="Y44" t="n">
-        <v>1009.879409551342</v>
+        <v>1009.879409551343</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="C45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="D45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="E45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="F45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="G45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="H45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="I45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="J45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="K45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="L45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="M45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="N45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="O45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="P45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="Q45" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="R45" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="S45" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="T45" t="n">
-        <v>72.58422100430558</v>
+        <v>72.58422100430604</v>
       </c>
       <c r="U45" t="n">
-        <v>69.43417594032015</v>
+        <v>69.43417594032047</v>
       </c>
       <c r="V45" t="n">
-        <v>62.82832313083206</v>
+        <v>62.82832313083225</v>
       </c>
       <c r="W45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="X45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>85.83090305735175</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="C46" t="n">
-        <v>85.83090305735175</v>
+        <v>85.42034205914462</v>
       </c>
       <c r="D46" t="n">
-        <v>154.1350307865981</v>
+        <v>85.42034205914462</v>
       </c>
       <c r="E46" t="n">
-        <v>154.1350307865981</v>
+        <v>85.42034205914462</v>
       </c>
       <c r="F46" t="n">
-        <v>154.1350307865981</v>
+        <v>85.42034205914462</v>
       </c>
       <c r="G46" t="n">
-        <v>154.1350307865981</v>
+        <v>85.42034205914462</v>
       </c>
       <c r="H46" t="n">
-        <v>154.1350307865981</v>
+        <v>85.42034205914462</v>
       </c>
       <c r="I46" t="n">
-        <v>154.1350307865981</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="J46" t="n">
-        <v>154.1350307865981</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="K46" t="n">
-        <v>154.1350307865981</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="L46" t="n">
-        <v>154.1350307865981</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="M46" t="n">
-        <v>154.1350307865981</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="N46" t="n">
-        <v>154.1350307865981</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="O46" t="n">
-        <v>154.1350307865981</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="P46" t="n">
-        <v>154.1350307865981</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="Q46" t="n">
-        <v>154.1350307865981</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="R46" t="n">
-        <v>154.1350307865981</v>
+        <v>154.1350307865987</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8820257381569</v>
+        <v>152.8820257381574</v>
       </c>
       <c r="T46" t="n">
-        <v>152.8820257381569</v>
+        <v>152.8820257381574</v>
       </c>
       <c r="U46" t="n">
-        <v>97.78389087099832</v>
+        <v>97.78389087099863</v>
       </c>
       <c r="V46" t="n">
-        <v>86.67289233519948</v>
+        <v>86.67289233519965</v>
       </c>
       <c r="W46" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="X46" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.90361914800121</v>
+        <v>29.90361914800124</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>40.56744951857654</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K11" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L11" t="n">
-        <v>270.6444670286918</v>
+        <v>92.3532647152734</v>
       </c>
       <c r="M11" t="n">
-        <v>284.8715129108858</v>
+        <v>78.30645062486111</v>
       </c>
       <c r="N11" t="n">
-        <v>282.5453100196493</v>
+        <v>279.4240160542789</v>
       </c>
       <c r="O11" t="n">
-        <v>3.720916963085372</v>
+        <v>141.3243694715097</v>
       </c>
       <c r="P11" t="n">
         <v>208.5255628951208</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.4098226515804</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R11" t="n">
-        <v>42.58424007769262</v>
+        <v>30.19003547347646</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R12" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,13 +8845,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8860,13 +8860,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P13" t="n">
         <v>87.48425302749862</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>56.08294808816299</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K14" t="n">
-        <v>179.1430348466931</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
-        <v>221.6663013583803</v>
+        <v>227.1789959456498</v>
       </c>
       <c r="M14" t="n">
-        <v>78.30645062486116</v>
+        <v>284.8715129108858</v>
       </c>
       <c r="N14" t="n">
-        <v>72.85895376825425</v>
+        <v>72.85895376825417</v>
       </c>
       <c r="O14" t="n">
-        <v>210.28597924911</v>
+        <v>80.97294260600314</v>
       </c>
       <c r="P14" t="n">
         <v>208.5255628951208</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.75705601628262</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R14" t="n">
-        <v>30.19003547347655</v>
+        <v>30.19003547347646</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,25 +9000,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.0491894225145</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>120.4720874149487</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>178.8570545303167</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>120.7512745861802</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9097,13 +9097,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P16" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9963,13 +9963,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>310.6138585746227</v>
+        <v>169.5409621292286</v>
       </c>
       <c r="O27" t="n">
-        <v>199.7756303651567</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
-        <v>120.7381301594616</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1300824528302</v>
@@ -10197,10 +10197,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M30" t="n">
-        <v>301.77688131</v>
+        <v>160.70398486461</v>
       </c>
       <c r="N30" t="n">
-        <v>169.5409621292413</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
         <v>255.2227828913207</v>
@@ -10428,16 +10428,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>132.0491894225145</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5559314728936</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
-        <v>310.6138585746227</v>
+        <v>169.5409621292418</v>
       </c>
       <c r="O33" t="n">
         <v>255.2227828913207</v>
@@ -10592,7 +10592,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>230.5092747145859</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N35" t="n">
         <v>283.4008070189657</v>
@@ -10601,13 +10601,13 @@
         <v>246.758517458259</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>77.33053623226846</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R35" t="n">
-        <v>2.645971125492228</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,19 +10662,19 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>132.0491894225145</v>
       </c>
       <c r="L36" t="n">
-        <v>120.4720874149487</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>159.8430444050498</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>102.0647483196405</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>120.7512745861802</v>
@@ -10686,7 +10686,7 @@
         <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,7 +10744,7 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K37" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>105.2836065989273</v>
@@ -10756,7 +10756,7 @@
         <v>111.3378805152112</v>
       </c>
       <c r="O37" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>87.48425302749862</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>109.5746066315038</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
-        <v>70.58354370323967</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M38" t="n">
-        <v>291.2847697033555</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>283.4008070189657</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P38" t="n">
-        <v>208.5255628951208</v>
+        <v>208.2809078231829</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
@@ -10902,16 +10902,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>171.373473584151</v>
+        <v>132.0491894225145</v>
       </c>
       <c r="L39" t="n">
         <v>120.4720874149487</v>
       </c>
       <c r="M39" t="n">
-        <v>120.5187602434134</v>
+        <v>116.7313253582776</v>
       </c>
       <c r="N39" t="n">
-        <v>102.0647483196405</v>
+        <v>145.176467366413</v>
       </c>
       <c r="O39" t="n">
         <v>120.7512745861802</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>69.16996059133484</v>
@@ -10996,10 +10996,10 @@
         <v>105.6509998050918</v>
       </c>
       <c r="P40" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11063,19 +11063,19 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>115.6833885137871</v>
       </c>
       <c r="M41" t="n">
         <v>291.2847697033555</v>
       </c>
       <c r="N41" t="n">
-        <v>259.2544104842866</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
-        <v>126.4783955972015</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
         <v>137.5801139476182</v>
@@ -11136,13 +11136,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>132.0491894225145</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>120.4720874149487</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>116.7313253582776</v>
@@ -11151,7 +11151,7 @@
         <v>102.0647483196405</v>
       </c>
       <c r="O42" t="n">
-        <v>120.7512745861802</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>120.7381301594616</v>
@@ -11215,10 +11215,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>105.2836065989273</v>
@@ -11233,10 +11233,10 @@
         <v>105.6509998050918</v>
       </c>
       <c r="P43" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461148</v>
+        <v>28.19140900978413</v>
       </c>
       <c r="L44" t="n">
         <v>270.6444670286918</v>
@@ -11312,13 +11312,13 @@
         <v>246.758517458259</v>
       </c>
       <c r="P44" t="n">
-        <v>71.76314289377635</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R44" t="n">
-        <v>2.645971125492171</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,10 +11379,10 @@
         <v>132.0491894225145</v>
       </c>
       <c r="L45" t="n">
-        <v>120.4720874149487</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>116.7313253582776</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>102.0647483196405</v>
@@ -11394,10 +11394,10 @@
         <v>120.7381301594616</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,10 +11452,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>105.2836065989273</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>167.5221780918087</v>
+        <v>167.5221780918086</v>
       </c>
       <c r="C11" t="n">
         <v>143.6404350951541</v>
       </c>
       <c r="D11" t="n">
-        <v>131.2070973562026</v>
+        <v>131.2070973562025</v>
       </c>
       <c r="E11" t="n">
-        <v>164.9138497756115</v>
+        <v>164.9138497756114</v>
       </c>
       <c r="F11" t="n">
-        <v>196.6341873539888</v>
+        <v>149.2847232342681</v>
       </c>
       <c r="G11" t="n">
-        <v>135.0097712781005</v>
+        <v>212.2617969210182</v>
       </c>
       <c r="H11" t="n">
-        <v>63.08844368001253</v>
+        <v>140.3404693229303</v>
       </c>
       <c r="I11" t="n">
-        <v>34.00853336646773</v>
+        <v>34.00853336646765</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>20.69412006656164</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>15.85129314863121</v>
+        <v>15.85129314863113</v>
       </c>
       <c r="U11" t="n">
-        <v>43.58457410617663</v>
+        <v>43.58457410617655</v>
       </c>
       <c r="V11" t="n">
-        <v>37.06269568020952</v>
+        <v>114.3147213231273</v>
       </c>
       <c r="W11" t="n">
-        <v>131.3314015397422</v>
+        <v>54.07937589682425</v>
       </c>
       <c r="X11" t="n">
-        <v>85.17406782239945</v>
+        <v>75.96562636576348</v>
       </c>
       <c r="Y11" t="n">
-        <v>175.7205051324252</v>
+        <v>98.46847948950725</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4.83919222355356</v>
+        <v>4.839192223553432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>6.493619160392811</v>
+        <v>6.493619160392683</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>167.5221780918087</v>
+        <v>90.27015244889073</v>
       </c>
       <c r="C14" t="n">
-        <v>143.6404350951541</v>
+        <v>66.38840945223622</v>
       </c>
       <c r="D14" t="n">
-        <v>131.2070973562026</v>
+        <v>131.2070973562025</v>
       </c>
       <c r="E14" t="n">
-        <v>164.9138497756115</v>
+        <v>164.9138497756114</v>
       </c>
       <c r="F14" t="n">
         <v>196.6341873539888</v>
       </c>
       <c r="G14" t="n">
-        <v>135.0097712781005</v>
+        <v>212.2617969210182</v>
       </c>
       <c r="H14" t="n">
-        <v>63.08844368001253</v>
+        <v>140.3404693229303</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.00853336646765</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>20.69412006656154</v>
       </c>
       <c r="T14" t="n">
-        <v>15.85129314863121</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>43.58457410617663</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>114.3147213231273</v>
       </c>
       <c r="W14" t="n">
-        <v>54.07937589682437</v>
+        <v>131.3314015397421</v>
       </c>
       <c r="X14" t="n">
-        <v>153.2176520086815</v>
+        <v>75.96562636576353</v>
       </c>
       <c r="Y14" t="n">
-        <v>162.3795743791726</v>
+        <v>167.1127882009509</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>4.83919222355356</v>
+        <v>4.839192223553496</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>6.493619160392825</v>
+        <v>6.49361916039274</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.953992523340276e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.678369738358285</v>
+        <v>3.678369738358214</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1056755.61009983</v>
+        <v>1056755.610099831</v>
       </c>
     </row>
     <row r="6">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1244497.360581615</v>
+        <v>1244497.360581616</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1244497.360581615</v>
+        <v>1244497.360581616</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1244497.360581615</v>
+        <v>1244497.360581616</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>396869.3978294068</v>
+      </c>
+      <c r="C2" t="n">
         <v>396869.3978294069</v>
-      </c>
-      <c r="C2" t="n">
-        <v>396869.3978294068</v>
       </c>
       <c r="D2" t="n">
         <v>396869.3978294069</v>
       </c>
       <c r="E2" t="n">
-        <v>342193.1788652576</v>
+        <v>342193.1788652575</v>
       </c>
       <c r="F2" t="n">
-        <v>342193.1788652575</v>
+        <v>342193.1788652578</v>
       </c>
       <c r="G2" t="n">
+        <v>397541.5877823131</v>
+      </c>
+      <c r="H2" t="n">
         <v>397541.5877823132</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>397541.5877823131</v>
       </c>
-      <c r="I2" t="n">
-        <v>397541.5877823132</v>
-      </c>
       <c r="J2" t="n">
-        <v>397673.3469863408</v>
+        <v>397673.3469863409</v>
       </c>
       <c r="K2" t="n">
         <v>397673.3469863409</v>
       </c>
       <c r="L2" t="n">
-        <v>397673.3469863408</v>
+        <v>397673.3469863407</v>
       </c>
       <c r="M2" t="n">
-        <v>397673.3469863411</v>
+        <v>397673.3469863412</v>
       </c>
       <c r="N2" t="n">
-        <v>397673.3469863411</v>
+        <v>397673.3469863412</v>
       </c>
       <c r="O2" t="n">
-        <v>397673.346986341</v>
+        <v>397673.3469863412</v>
       </c>
       <c r="P2" t="n">
-        <v>397673.3469863409</v>
+        <v>397673.3469863413</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>271860.213039114</v>
+        <v>271860.2130391141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105065.1212317938</v>
+        <v>105065.1212317937</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>163045.2015947988</v>
+        <v>163045.2015947989</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105065.1212317938</v>
+        <v>105065.1212317937</v>
       </c>
       <c r="M3" t="n">
-        <v>16978.26008510997</v>
+        <v>16978.26008510995</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65243.91999030345</v>
+        <v>65243.9199903034</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,10 +26424,10 @@
         <v>503377.7457368798</v>
       </c>
       <c r="E4" t="n">
-        <v>398753.0128571785</v>
+        <v>398753.0128571786</v>
       </c>
       <c r="F4" t="n">
-        <v>398753.0128571785</v>
+        <v>398753.0128571786</v>
       </c>
       <c r="G4" t="n">
         <v>468280.5434955973</v>
@@ -26439,19 +26439,19 @@
         <v>468280.5434955973</v>
       </c>
       <c r="J4" t="n">
-        <v>471340.3538689113</v>
+        <v>471340.3538689112</v>
       </c>
       <c r="K4" t="n">
         <v>471340.3538689113</v>
       </c>
       <c r="L4" t="n">
-        <v>471340.3538689113</v>
+        <v>471340.3538689114</v>
       </c>
       <c r="M4" t="n">
         <v>470415.8059088226</v>
       </c>
       <c r="N4" t="n">
-        <v>470415.8059088225</v>
+        <v>470415.8059088226</v>
       </c>
       <c r="O4" t="n">
         <v>470415.8059088225</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24329.52922147661</v>
+        <v>24329.52922147662</v>
       </c>
       <c r="F5" t="n">
         <v>24329.52922147661</v>
@@ -26494,7 +26494,7 @@
         <v>47587.70003575934</v>
       </c>
       <c r="K5" t="n">
-        <v>47587.70003575934</v>
+        <v>47587.70003575935</v>
       </c>
       <c r="L5" t="n">
         <v>47587.70003575935</v>
@@ -26503,13 +26503,13 @@
         <v>44674.95856053883</v>
       </c>
       <c r="N5" t="n">
-        <v>44674.95856053881</v>
+        <v>44674.95856053883</v>
       </c>
       <c r="O5" t="n">
-        <v>44674.95856053881</v>
+        <v>44674.95856053883</v>
       </c>
       <c r="P5" t="n">
-        <v>44674.95856053881</v>
+        <v>44674.95856053883</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140135.9479074729</v>
+        <v>-140140.4142916782</v>
       </c>
       <c r="C6" t="n">
-        <v>-140135.947907473</v>
+        <v>-140140.4142916781</v>
       </c>
       <c r="D6" t="n">
-        <v>-140135.9479074729</v>
+        <v>-140140.4142916781</v>
       </c>
       <c r="E6" t="n">
-        <v>-352749.5762525114</v>
+        <v>-353057.79940874</v>
       </c>
       <c r="F6" t="n">
-        <v>-80889.36321339759</v>
+        <v>-81197.58636962566</v>
       </c>
       <c r="G6" t="n">
-        <v>-211174.5057625991</v>
+        <v>-211175.237758177</v>
       </c>
       <c r="H6" t="n">
-        <v>-106109.3845308053</v>
+        <v>-106110.1165263832</v>
       </c>
       <c r="I6" t="n">
-        <v>-106109.3845308053</v>
+        <v>-106110.1165263833</v>
       </c>
       <c r="J6" t="n">
-        <v>-284299.9085131286</v>
+        <v>-284299.9085131285</v>
       </c>
       <c r="K6" t="n">
         <v>-121254.7069183297</v>
       </c>
       <c r="L6" t="n">
-        <v>-226319.8281501237</v>
+        <v>-226319.8281501238</v>
       </c>
       <c r="M6" t="n">
-        <v>-134395.6775681303</v>
+        <v>-134395.6775681302</v>
       </c>
       <c r="N6" t="n">
         <v>-117417.4174830202</v>
       </c>
       <c r="O6" t="n">
-        <v>-182661.3374733238</v>
+        <v>-182661.3374733235</v>
       </c>
       <c r="P6" t="n">
-        <v>-117417.4174830204</v>
+        <v>-117417.4174830201</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="F2" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="G2" t="n">
         <v>337.8964638257669</v>
@@ -26707,25 +26707,25 @@
         <v>337.8964638257669</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="K2" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="L2" t="n">
         <v>212.8863015276215</v>
       </c>
       <c r="M2" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="N2" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="O2" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="P2" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>77.25202564291784</v>
+        <v>77.25202564291789</v>
       </c>
       <c r="F4" t="n">
         <v>77.25202564291784</v>
@@ -26805,31 +26805,31 @@
         <v>77.25202564291786</v>
       </c>
       <c r="H4" t="n">
-        <v>77.25202564291784</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="I4" t="n">
-        <v>77.25202564291784</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="J4" t="n">
         <v>451.0472649929333</v>
       </c>
       <c r="K4" t="n">
-        <v>451.0472649929333</v>
+        <v>451.0472649929334</v>
       </c>
       <c r="L4" t="n">
-        <v>451.0472649929333</v>
+        <v>451.0472649929334</v>
       </c>
       <c r="M4" t="n">
-        <v>373.7952393500153</v>
+        <v>373.7952393500155</v>
       </c>
       <c r="N4" t="n">
-        <v>373.7952393500151</v>
+        <v>373.7952393500155</v>
       </c>
       <c r="O4" t="n">
-        <v>373.7952393500151</v>
+        <v>373.7952393500155</v>
       </c>
       <c r="P4" t="n">
-        <v>373.7952393500151</v>
+        <v>373.7952393500155</v>
       </c>
     </row>
   </sheetData>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>131.3314015397421</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>81.55489998787931</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>131.3314015397422</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>21.22282510638743</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>81.55489998787925</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>131.3314015397423</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.22282510638746</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>81.55489998787931</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>77.25202564291784</v>
+        <v>77.25202564291789</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3314015397422</v>
+        <v>131.3314015397421</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.55489998787925</v>
+        <v>81.55489998787931</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>77.25202564291784</v>
+        <v>77.25202564291789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="C11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="D11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="E11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="F11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="G11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="H11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="I11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="J11" t="n">
-        <v>206.5650622860247</v>
+        <v>75.82137809976601</v>
       </c>
       <c r="K11" t="n">
         <v>5.288040006689243</v>
       </c>
       <c r="L11" t="n">
-        <v>28.27385997260626</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>206.5650622860247</v>
+        <v>146.2136354205182</v>
       </c>
       <c r="P11" t="n">
         <v>13.46504015281364</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.6602700078091</v>
+        <v>88.48997871177123</v>
       </c>
       <c r="R11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="S11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="T11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="U11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="V11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="W11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="X11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="Y11" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>206.5650622860247</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28175,10 +28175,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>195.8473320986218</v>
       </c>
       <c r="G12" t="n">
         <v>148.7385510817101</v>
@@ -28205,37 +28205,37 @@
         <v>102.0647483196405</v>
       </c>
       <c r="O12" t="n">
-        <v>182.8157229929486</v>
+        <v>120.7512745861802</v>
       </c>
       <c r="P12" t="n">
-        <v>120.7381301594616</v>
+        <v>197.9901558023795</v>
       </c>
       <c r="Q12" t="n">
-        <v>142.2268280311688</v>
+        <v>6.096745578338592</v>
       </c>
       <c r="R12" t="n">
-        <v>206.5650622860247</v>
+        <v>163.8420014665998</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4783522015736</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="T12" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="U12" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="V12" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="W12" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="X12" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="Y12" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
     </row>
     <row r="13">
@@ -28251,31 +28251,31 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>159.0896723055981</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6956999658778</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="H13" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="I13" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="J13" t="n">
-        <v>206.5650622860247</v>
+        <v>119.8808078207869</v>
       </c>
       <c r="K13" t="n">
-        <v>206.5650622860247</v>
+        <v>66.44036191109178</v>
       </c>
       <c r="L13" t="n">
-        <v>136.6809145135915</v>
+        <v>31.39730791466419</v>
       </c>
       <c r="M13" t="n">
         <v>140.0956024203976</v>
@@ -28284,37 +28284,37 @@
         <v>127.0814304014271</v>
       </c>
       <c r="O13" t="n">
-        <v>142.4125610946941</v>
+        <v>36.76156128960226</v>
       </c>
       <c r="P13" t="n">
-        <v>109.6888708904864</v>
+        <v>57.86480540207842</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.1342641897326</v>
+        <v>126.7920271609496</v>
       </c>
       <c r="R13" t="n">
-        <v>203.2017724423185</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="S13" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="T13" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="U13" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="V13" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="W13" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="X13" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="C14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="D14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="E14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="F14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="G14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="H14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="I14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="J14" t="n">
-        <v>206.5650622860247</v>
+        <v>75.82137809976601</v>
       </c>
       <c r="K14" t="n">
-        <v>36.19123250611094</v>
+        <v>5.288040006689243</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>71.73933105564829</v>
       </c>
       <c r="M14" t="n">
-        <v>206.5650622860247</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="P14" t="n">
         <v>13.46504015281364</v>
       </c>
       <c r="Q14" t="n">
-        <v>206.5650622860247</v>
+        <v>88.48997871177123</v>
       </c>
       <c r="R14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="S14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="T14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="U14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="V14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="W14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="X14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="Y14" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
     </row>
     <row r="15">
@@ -28424,25 +28424,25 @@
         <v>125.6770615541839</v>
       </c>
       <c r="I15" t="n">
-        <v>113.7164772401473</v>
+        <v>107.1549930878643</v>
       </c>
       <c r="J15" t="n">
-        <v>133.6102484037044</v>
+        <v>64.23547814897903</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>120.4720874149487</v>
       </c>
       <c r="M15" t="n">
         <v>116.7313253582776</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>179.3167739625583</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>120.7512745861802</v>
       </c>
       <c r="P15" t="n">
         <v>120.7381301594616</v>
@@ -28451,28 +28451,28 @@
         <v>142.2268280311688</v>
       </c>
       <c r="R15" t="n">
-        <v>206.5650622860247</v>
+        <v>134.3439594288639</v>
       </c>
       <c r="S15" t="n">
-        <v>206.5650622860247</v>
+        <v>191.4783522015736</v>
       </c>
       <c r="T15" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="U15" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="V15" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="W15" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="X15" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="Y15" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>206.5650622860247</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>206.5650622860247</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>198.3937416020483</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>206.5650622860247</v>
+        <v>168.6956999658778</v>
       </c>
       <c r="H16" t="n">
-        <v>206.5650622860247</v>
+        <v>165.7792766353332</v>
       </c>
       <c r="I16" t="n">
-        <v>206.5650622860247</v>
+        <v>164.700350141631</v>
       </c>
       <c r="J16" t="n">
         <v>141.6770921979116</v>
       </c>
       <c r="K16" t="n">
-        <v>135.6103225024266</v>
+        <v>66.44036191109178</v>
       </c>
       <c r="L16" t="n">
-        <v>136.6809145135915</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="M16" t="n">
-        <v>140.0956024203976</v>
+        <v>202.0606983038025</v>
       </c>
       <c r="N16" t="n">
-        <v>127.0814304014271</v>
+        <v>204.333456044345</v>
       </c>
       <c r="O16" t="n">
-        <v>142.4125610946941</v>
+        <v>36.76156128960226</v>
       </c>
       <c r="P16" t="n">
-        <v>57.86480540207842</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.1342641897326</v>
+        <v>126.7920271609496</v>
       </c>
       <c r="R16" t="n">
         <v>203.2017724423185</v>
       </c>
       <c r="S16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="T16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="U16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="V16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="W16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="X16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.5650622860247</v>
+        <v>206.5650622860248</v>
       </c>
     </row>
     <row r="17">
@@ -28582,28 +28582,28 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I17" t="n">
-        <v>317.8256212954103</v>
+        <v>240.5735956524924</v>
       </c>
       <c r="J17" t="n">
         <v>185.3959847312698</v>
       </c>
       <c r="K17" t="n">
-        <v>215.334267352804</v>
+        <v>292.5862929957219</v>
       </c>
       <c r="L17" t="n">
-        <v>221.6663013583803</v>
+        <v>298.9183270012982</v>
       </c>
       <c r="M17" t="n">
         <v>207.619487267968</v>
       </c>
       <c r="N17" t="n">
-        <v>205.2932843767315</v>
+        <v>282.5453100196494</v>
       </c>
       <c r="O17" t="n">
         <v>210.28597924911</v>
       </c>
       <c r="P17" t="n">
-        <v>221.9906030479344</v>
+        <v>296.1213347254818</v>
       </c>
       <c r="Q17" t="n">
         <v>226.0700926593894</v>
@@ -28612,16 +28612,16 @@
         <v>236.7550977595012</v>
       </c>
       <c r="S17" t="n">
-        <v>304.5112079955042</v>
+        <v>227.2591823525863</v>
       </c>
       <c r="T17" t="n">
-        <v>299.6683810775737</v>
+        <v>222.4163554346559</v>
       </c>
       <c r="U17" t="n">
-        <v>307.2636878531338</v>
+        <v>250.1496363922013</v>
       </c>
       <c r="V17" t="n">
-        <v>337.8964638257669</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -28819,25 +28819,25 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I20" t="n">
-        <v>240.5735956524924</v>
+        <v>317.8256212954103</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6480103741877</v>
+        <v>185.3959847312698</v>
       </c>
       <c r="K20" t="n">
         <v>215.334267352804</v>
       </c>
       <c r="L20" t="n">
-        <v>221.6663013583803</v>
+        <v>298.9183270012982</v>
       </c>
       <c r="M20" t="n">
-        <v>284.8715129108858</v>
+        <v>207.619487267968</v>
       </c>
       <c r="N20" t="n">
-        <v>279.4240160542789</v>
+        <v>205.2932843767315</v>
       </c>
       <c r="O20" t="n">
-        <v>287.5380048920279</v>
+        <v>210.28597924911</v>
       </c>
       <c r="P20" t="n">
         <v>221.9906030479344</v>
@@ -28849,16 +28849,16 @@
         <v>236.7550977595012</v>
       </c>
       <c r="S20" t="n">
-        <v>227.2591823525863</v>
+        <v>304.5112079955042</v>
       </c>
       <c r="T20" t="n">
         <v>222.4163554346559</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1496363922013</v>
+        <v>307.2636878531338</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
@@ -29056,7 +29056,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="I23" t="n">
-        <v>240.5735956524924</v>
+        <v>317.8256212954103</v>
       </c>
       <c r="J23" t="n">
         <v>185.3959847312698</v>
@@ -29068,34 +29068,34 @@
         <v>221.6663013583803</v>
       </c>
       <c r="M23" t="n">
-        <v>284.8715129108858</v>
+        <v>207.619487267968</v>
       </c>
       <c r="N23" t="n">
         <v>205.2932843767315</v>
       </c>
       <c r="O23" t="n">
-        <v>210.28597924911</v>
+        <v>287.5380048920279</v>
       </c>
       <c r="P23" t="n">
         <v>221.9906030479344</v>
       </c>
       <c r="Q23" t="n">
-        <v>226.0700926593894</v>
+        <v>300.2008243369369</v>
       </c>
       <c r="R23" t="n">
         <v>236.7550977595012</v>
       </c>
       <c r="S23" t="n">
-        <v>284.3732338135189</v>
+        <v>227.2591823525863</v>
       </c>
       <c r="T23" t="n">
         <v>299.6683810775737</v>
       </c>
       <c r="U23" t="n">
-        <v>327.4016620351192</v>
+        <v>250.1496363922013</v>
       </c>
       <c r="V23" t="n">
-        <v>337.8964638257669</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="N26" t="n">
         <v>212.8863015276214</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
     </row>
     <row r="27">
@@ -29357,7 +29357,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.096745578338592</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.3439594288639</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4783522015736</v>
+        <v>73.3373809002221</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8863015276215</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="V27" t="n">
-        <v>142.3625710989621</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>212.8863015276214</v>
       </c>
     </row>
     <row r="28">
@@ -29430,10 +29430,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>212.8863015276215</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>212.8863015276215</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29466,40 +29466,40 @@
         <v>24.42134215107678</v>
       </c>
       <c r="N28" t="n">
-        <v>15.74354988621587</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="O28" t="n">
         <v>36.76156128960226</v>
       </c>
       <c r="P28" t="n">
-        <v>126.8051141107112</v>
+        <v>57.86480540207842</v>
       </c>
       <c r="Q28" t="n">
-        <v>212.8863015276215</v>
+        <v>166.3823600131513</v>
       </c>
       <c r="R28" t="n">
         <v>203.2017724423185</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276221</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
     </row>
     <row r="30">
@@ -29594,13 +29594,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>51.52699563387072</v>
       </c>
       <c r="G30" t="n">
         <v>148.7385510817101</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.096745578338592</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3439594288639</v>
@@ -29642,22 +29642,22 @@
         <v>191.4783522015736</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Y30" t="n">
-        <v>194.2658286020813</v>
+        <v>212.8863015276214</v>
       </c>
     </row>
     <row r="31">
@@ -29667,16 +29667,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>212.8863015276215</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>212.8863015276215</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>212.8863015276215</v>
+        <v>200.4267411313608</v>
       </c>
       <c r="E31" t="n">
-        <v>172.2155190330276</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -29685,7 +29685,7 @@
         <v>168.6956999658778</v>
       </c>
       <c r="H31" t="n">
-        <v>212.8863015276215</v>
+        <v>165.7792766353332</v>
       </c>
       <c r="I31" t="n">
         <v>164.700350141631</v>
@@ -29697,7 +29697,7 @@
         <v>66.44036191109178</v>
       </c>
       <c r="L31" t="n">
-        <v>31.39730791466419</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="M31" t="n">
         <v>24.42134215107678</v>
@@ -29715,28 +29715,28 @@
         <v>126.7920271609496</v>
       </c>
       <c r="R31" t="n">
-        <v>212.8863015276215</v>
+        <v>203.2017724423185</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8863015276215</v>
+        <v>212.8863015276214</v>
       </c>
     </row>
     <row r="32">
@@ -29776,7 +29776,7 @@
         <v>212.8863015276215</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8863015276211</v>
+        <v>212.8863015276215</v>
       </c>
       <c r="M32" t="n">
         <v>212.8863015276215</v>
@@ -29840,10 +29840,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7385510817101</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.6770615541839</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>107.1549930878643</v>
@@ -29876,13 +29876,13 @@
         <v>134.3439594288639</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4783522015736</v>
+        <v>182.483932881186</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>212.8863015276215</v>
       </c>
       <c r="V33" t="n">
         <v>212.8863015276215</v>
@@ -29891,7 +29891,7 @@
         <v>212.8863015276215</v>
       </c>
       <c r="X33" t="n">
-        <v>142.3625710989647</v>
+        <v>212.8863015276215</v>
       </c>
       <c r="Y33" t="n">
         <v>212.8863015276215</v>
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>177.6169206649681</v>
+      </c>
+      <c r="C34" t="n">
         <v>212.8863015276215</v>
-      </c>
-      <c r="C34" t="n">
-        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>212.8863015276215</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6956999658778</v>
+        <v>212.8863015276215</v>
       </c>
       <c r="H34" t="n">
         <v>212.8863015276215</v>
       </c>
       <c r="I34" t="n">
-        <v>164.700350141631</v>
+        <v>182.8119982248576</v>
       </c>
       <c r="J34" t="n">
         <v>119.8808078207869</v>
@@ -29937,7 +29937,7 @@
         <v>31.39730791466419</v>
       </c>
       <c r="M34" t="n">
-        <v>169.0934918044387</v>
+        <v>24.42134215107678</v>
       </c>
       <c r="N34" t="n">
         <v>15.74354988621587</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="C35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="D35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="E35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="F35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="G35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="H35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="I35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="J35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="K35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="L35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="M35" t="n">
-        <v>165.493617373153</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="N35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="O35" t="n">
-        <v>234.109126634009</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>234.109126634009</v>
+        <v>229.5974778085448</v>
       </c>
       <c r="Q35" t="n">
-        <v>234.109126634009</v>
+        <v>88.48997871177123</v>
       </c>
       <c r="R35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="S35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="T35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="U35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="Y35" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
     </row>
     <row r="36">
@@ -30071,7 +30071,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>214.9392908865722</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30086,19 +30086,19 @@
         <v>107.1549930878643</v>
       </c>
       <c r="J36" t="n">
-        <v>51.90325750311949</v>
+        <v>133.6102484037044</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>120.4720874149487</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>116.7313253582776</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>102.0647483196405</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>6.096745578338592</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3439594288639</v>
+        <v>163.8420014665998</v>
       </c>
       <c r="S36" t="n">
         <v>191.4783522015736</v>
@@ -30119,13 +30119,13 @@
         <v>214.946524184041</v>
       </c>
       <c r="U36" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V36" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W36" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30141,19 +30141,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>214.1767186640912</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>166.4571809719723</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="D37" t="n">
-        <v>234.109126634009</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>196.7612109388318</v>
       </c>
       <c r="G37" t="n">
         <v>168.6956999658778</v>
@@ -30168,7 +30168,7 @@
         <v>119.8808078207869</v>
       </c>
       <c r="K37" t="n">
-        <v>66.44036191109178</v>
+        <v>135.6103225024266</v>
       </c>
       <c r="L37" t="n">
         <v>31.39730791466419</v>
@@ -30180,7 +30180,7 @@
         <v>15.74354988621587</v>
       </c>
       <c r="O37" t="n">
-        <v>36.76156128960226</v>
+        <v>142.4125610946941</v>
       </c>
       <c r="P37" t="n">
         <v>57.86480540207842</v>
@@ -30192,19 +30192,19 @@
         <v>203.2017724423185</v>
       </c>
       <c r="S37" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="T37" t="n">
         <v>223.7398745248765</v>
       </c>
       <c r="U37" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V37" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W37" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="C38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="D38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="E38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="F38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="G38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="H38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="I38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="J38" t="n">
-        <v>189.3167647580531</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="K38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="L38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="M38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="N38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="O38" t="n">
-        <v>210.28597924911</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="P38" t="n">
-        <v>234.109126634009</v>
+        <v>126.6281522776657</v>
       </c>
       <c r="Q38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="R38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="S38" t="n">
-        <v>234.109126634009</v>
+        <v>227.2591823525863</v>
       </c>
       <c r="T38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="U38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="Y38" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
     </row>
     <row r="39">
@@ -30356,13 +30356,13 @@
         <v>214.946524184041</v>
       </c>
       <c r="U39" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V39" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W39" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -30381,13 +30381,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>234.109126634009</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>199.5104699326097</v>
+        <v>178.4023473902148</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30402,7 +30402,7 @@
         <v>164.700350141631</v>
       </c>
       <c r="J40" t="n">
-        <v>119.8808078207869</v>
+        <v>141.6770921979116</v>
       </c>
       <c r="K40" t="n">
         <v>66.44036191109178</v>
@@ -30420,28 +30420,28 @@
         <v>36.76156128960226</v>
       </c>
       <c r="P40" t="n">
-        <v>57.86480540207842</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.7920271609496</v>
+        <v>169.1342641897326</v>
       </c>
       <c r="R40" t="n">
         <v>203.2017724423185</v>
       </c>
       <c r="S40" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="T40" t="n">
         <v>223.7398745248765</v>
       </c>
       <c r="U40" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V40" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W40" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="C41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="D41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="E41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="F41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="G41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="H41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="I41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="J41" t="n">
-        <v>234.109126634009</v>
+        <v>147.3806168160046</v>
       </c>
       <c r="K41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="L41" t="n">
-        <v>234.109126634009</v>
+        <v>105.9829128445932</v>
       </c>
       <c r="M41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="N41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="O41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="P41" t="n">
-        <v>95.5122074507329</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="Q41" t="n">
-        <v>234.109126634009</v>
+        <v>88.48997871177123</v>
       </c>
       <c r="R41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="S41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="T41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="U41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="V41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="W41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="X41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>219.8622134444378</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30557,16 +30557,16 @@
         <v>125.6770615541839</v>
       </c>
       <c r="I42" t="n">
-        <v>113.7164772401473</v>
+        <v>156.82819628692</v>
       </c>
       <c r="J42" t="n">
-        <v>133.6102484037044</v>
+        <v>51.90325750311949</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>132.0491894225145</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>120.4720874149487</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -30575,7 +30575,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>120.7512745861802</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -30593,13 +30593,13 @@
         <v>214.946524184041</v>
       </c>
       <c r="U42" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="V42" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="W42" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30624,25 +30624,25 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>234.109126634009</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.6956999658778</v>
+        <v>169.3599183805834</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7792766353332</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="I43" t="n">
-        <v>197.7536391022681</v>
+        <v>164.700350141631</v>
       </c>
       <c r="J43" t="n">
-        <v>119.8808078207869</v>
+        <v>141.6770921979116</v>
       </c>
       <c r="K43" t="n">
-        <v>66.44036191109178</v>
+        <v>135.6103225024266</v>
       </c>
       <c r="L43" t="n">
         <v>31.39730791466419</v>
@@ -30657,28 +30657,28 @@
         <v>36.76156128960226</v>
       </c>
       <c r="P43" t="n">
-        <v>57.86480540207842</v>
+        <v>145.349058429577</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.7920271609496</v>
+        <v>169.1342641897326</v>
       </c>
       <c r="R43" t="n">
         <v>203.2017724423185</v>
       </c>
       <c r="S43" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="T43" t="n">
         <v>223.7398745248765</v>
       </c>
       <c r="U43" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="V43" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="W43" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340088</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="C44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="D44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="E44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="F44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="G44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="H44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="I44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="J44" t="n">
-        <v>234.109126634009</v>
+        <v>134.6381215597854</v>
       </c>
       <c r="K44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="L44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="M44" t="n">
-        <v>150.5686200967292</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="N44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="O44" t="n">
-        <v>234.109126634009</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="Q44" t="n">
-        <v>226.0700926593894</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="R44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="S44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="T44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="U44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="Y44" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
     </row>
     <row r="45">
@@ -30803,10 +30803,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>120.4720874149487</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>116.7313253582776</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -30818,10 +30818,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.20846462511068</v>
+        <v>185.3385470779413</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3439594288639</v>
+        <v>163.8420014665998</v>
       </c>
       <c r="S45" t="n">
         <v>191.4783522015736</v>
@@ -30830,13 +30830,13 @@
         <v>214.946524184041</v>
       </c>
       <c r="U45" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V45" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W45" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>234.109126634009</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
-        <v>166.4571809719723</v>
+        <v>222.5346788620162</v>
       </c>
       <c r="D46" t="n">
-        <v>214.1767186640909</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
         <v>141.676141212225</v>
@@ -30873,13 +30873,13 @@
         <v>165.7792766353332</v>
       </c>
       <c r="I46" t="n">
-        <v>164.700350141631</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="J46" t="n">
-        <v>119.8808078207869</v>
+        <v>141.6770921979116</v>
       </c>
       <c r="K46" t="n">
-        <v>66.44036191109178</v>
+        <v>135.6103225024266</v>
       </c>
       <c r="L46" t="n">
         <v>31.39730791466419</v>
@@ -30903,19 +30903,19 @@
         <v>203.2017724423185</v>
       </c>
       <c r="S46" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="T46" t="n">
         <v>223.7398745248765</v>
       </c>
       <c r="U46" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="V46" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="W46" t="n">
-        <v>234.109126634009</v>
+        <v>234.1091266340089</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>61.73652707333139</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>77.25202564291784</v>
+        <v>77.25202564291789</v>
       </c>
       <c r="M11" t="n">
-        <v>77.25202564291784</v>
+        <v>77.25202564291789</v>
       </c>
       <c r="N11" t="n">
-        <v>77.25202564291784</v>
+        <v>74.13073167754746</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>77.25202564291789</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>12.39420460421607</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35462,7 +35462,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29.81456788835894</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -35471,10 +35471,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>34.73749044622508</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>37.02389297869347</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -35501,19 +35501,19 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>62.06444840676838</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>77.25202564291789</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.22110285716083</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>15.08671008445118</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35547,28 +35547,28 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>61.38241203531405</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>17.41353109337311</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>67.63818006757811</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>37.869362320147</v>
       </c>
       <c r="H13" t="n">
-        <v>40.78578565069142</v>
+        <v>40.78578565069151</v>
       </c>
       <c r="I13" t="n">
-        <v>41.86471214439365</v>
+        <v>41.86471214439374</v>
       </c>
       <c r="J13" t="n">
-        <v>64.88797008811302</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>70.95473978359804</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35583,13 +35583,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>51.82406548840801</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.36328984370626</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>77.25202564291784</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>77.25202564291784</v>
@@ -35659,13 +35659,13 @@
         <v>74.13073167754743</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>77.25202564291784</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>77.25202564291784</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12.33222064585954</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>74.51587286351025</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>76.79230621067622</v>
+        <v>77.25202564291784</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35747,10 +35747,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.22110285716083</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>15.08671008445109</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -35778,28 +35778,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.94814162105658</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>61.38241203531396</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.46685938360163</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>37.86936232014691</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>40.78578565069142</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>41.86471214439365</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35808,19 +35808,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>69.88414777243331</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>61.96509588340491</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>77.25202564291784</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>61.21600385644771</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,28 +35878,28 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>77.25202564291786</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>74.13073167754743</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35908,16 +35908,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>77.25202564291786</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>77.25202564291786</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>57.11405146093254</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>17.01668021661487</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,25 +36115,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="J20" t="n">
-        <v>77.25202564291784</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="M20" t="n">
-        <v>77.25202564291784</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>74.13073167754743</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>77.25202564291784</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,16 +36145,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>57.11405146093254</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>17.01668021661487</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36364,34 +36364,34 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>77.25202564291784</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>74.13073167754743</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.11405146093256</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>77.25202564291784</v>
+        <v>77.25202564291786</v>
       </c>
       <c r="U23" t="n">
-        <v>77.25202564291784</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>17.01668021661487</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0649234278555</v>
+        <v>137.0649234278553</v>
       </c>
       <c r="K26" t="n">
         <v>207.5982615209322</v>
@@ -36616,7 +36616,7 @@
         <v>124.3963228158502</v>
       </c>
       <c r="R26" t="n">
-        <v>18.71544384581287</v>
+        <v>18.71544384581284</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,13 +36683,13 @@
         <v>185.0455559517224</v>
       </c>
       <c r="N27" t="n">
-        <v>208.5491102549822</v>
+        <v>67.47621380958809</v>
       </c>
       <c r="O27" t="n">
-        <v>79.02435577897647</v>
+        <v>134.4715083051405</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>85.62574391921767</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,10 +36726,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.26938086265338</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.42912055564912</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36762,16 +36762,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>197.1427516414056</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>68.94030870863277</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.09427436667187</v>
+        <v>39.59033285220172</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0649234278555</v>
+        <v>137.0649234278554</v>
       </c>
       <c r="K29" t="n">
         <v>207.5982615209322</v>
@@ -36841,7 +36841,7 @@
         <v>296.551583963009</v>
       </c>
       <c r="N29" t="n">
-        <v>290.9938241698557</v>
+        <v>290.9938241698563</v>
       </c>
       <c r="O29" t="n">
         <v>249.3588397367704</v>
@@ -36853,7 +36853,7 @@
         <v>124.3963228158502</v>
       </c>
       <c r="R29" t="n">
-        <v>18.71544384581287</v>
+        <v>18.71544384581284</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>119.8324563416929</v>
       </c>
       <c r="M30" t="n">
-        <v>185.0455559517224</v>
+        <v>43.97265950633244</v>
       </c>
       <c r="N30" t="n">
-        <v>67.47621380960084</v>
+        <v>208.5491102549822</v>
       </c>
       <c r="O30" t="n">
         <v>134.4715083051405</v>
@@ -36963,16 +36963,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.26938086265338</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>46.42912055564912</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>67.70365127691076</v>
+        <v>55.24409088065008</v>
       </c>
       <c r="E31" t="n">
-        <v>30.53937782080267</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36981,7 +36981,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.10702489228822</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>181.4889936129572</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.684529085302975</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>137.0649234278555</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5982615209323</v>
+        <v>207.5982615209322</v>
       </c>
       <c r="L32" t="n">
-        <v>261.8644671979327</v>
+        <v>261.864467197933</v>
       </c>
       <c r="M32" t="n">
         <v>296.551583963009</v>
       </c>
       <c r="N32" t="n">
-        <v>290.9938241698558</v>
+        <v>290.9938241698557</v>
       </c>
       <c r="O32" t="n">
         <v>249.3588397367704</v>
       </c>
       <c r="P32" t="n">
-        <v>199.4212613748079</v>
+        <v>199.4212613748078</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3963228158503</v>
+        <v>124.3963228158502</v>
       </c>
       <c r="R32" t="n">
-        <v>18.71544384581292</v>
+        <v>18.71544384581287</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>39.32428416163645</v>
       </c>
       <c r="L33" t="n">
-        <v>18.08384405794489</v>
+        <v>119.8324563416929</v>
       </c>
       <c r="M33" t="n">
         <v>185.0455559517224</v>
       </c>
       <c r="N33" t="n">
-        <v>208.5491102549822</v>
+        <v>67.47621380960129</v>
       </c>
       <c r="O33" t="n">
         <v>134.4715083051405</v>
@@ -37200,28 +37200,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.26938086265343</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.42912055564912</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>71.21016031539648</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.19060156174371</v>
       </c>
       <c r="H34" t="n">
-        <v>47.10702489228828</v>
+        <v>47.10702489228822</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>18.11164808322662</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>144.672149653362</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.684529085303032</v>
+        <v>9.684529085302975</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>158.287748534243</v>
+        <v>158.2877485342429</v>
       </c>
       <c r="K35" t="n">
         <v>228.8210866273197</v>
       </c>
       <c r="L35" t="n">
-        <v>283.0872923043206</v>
+        <v>283.0872923043205</v>
       </c>
       <c r="M35" t="n">
-        <v>188.3834048197709</v>
+        <v>317.7744090693964</v>
       </c>
       <c r="N35" t="n">
         <v>312.2166492762432</v>
       </c>
       <c r="O35" t="n">
-        <v>270.5816648431579</v>
+        <v>36.47253820914894</v>
       </c>
       <c r="P35" t="n">
-        <v>12.11852358607458</v>
+        <v>84.93741099287885</v>
       </c>
       <c r="Q35" t="n">
-        <v>8.039033974619528</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>39.9382689522003</v>
       </c>
       <c r="S35" t="n">
-        <v>6.84994428142268</v>
+        <v>6.849944281422594</v>
       </c>
       <c r="T35" t="n">
-        <v>11.69277119935311</v>
+        <v>11.69277119935302</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37367,7 +37367,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>43.11171904677253</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>43.11171904677226</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37437,19 +37437,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.55979799912308</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>67.65194566203655</v>
       </c>
       <c r="D37" t="n">
-        <v>88.92647638329828</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>57.83432872038514</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>113.4953866582871</v>
+        <v>48.71314190273908</v>
       </c>
       <c r="K38" t="n">
         <v>228.8210866273197</v>
       </c>
       <c r="L38" t="n">
-        <v>83.02636897886838</v>
+        <v>283.0872923043205</v>
       </c>
       <c r="M38" t="n">
-        <v>317.7744090693965</v>
+        <v>26.48963936604092</v>
       </c>
       <c r="N38" t="n">
         <v>312.2166492762432</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>270.5816648431579</v>
       </c>
       <c r="P38" t="n">
-        <v>220.6440864811954</v>
+        <v>112.9184570529142</v>
       </c>
       <c r="Q38" t="n">
         <v>145.6191479222377</v>
       </c>
       <c r="R38" t="n">
-        <v>39.93826895220039</v>
+        <v>39.9382689522003</v>
       </c>
       <c r="S38" t="n">
-        <v>6.84994428142268</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>11.69277119935311</v>
+        <v>11.69277119935302</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.32428416163645</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>3.787434885135807</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>43.11171904677253</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37677,13 +37677,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>67.65194566203664</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>57.83432872038472</v>
+        <v>36.72620617798984</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>88.76006820443186</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>158.287748534243</v>
+        <v>71.55923871623861</v>
       </c>
       <c r="K41" t="n">
-        <v>228.8210866273198</v>
+        <v>228.8210866273196</v>
       </c>
       <c r="L41" t="n">
-        <v>12.44282527562878</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>317.7744090693965</v>
+        <v>317.7744090693964</v>
       </c>
       <c r="N41" t="n">
-        <v>288.0702527415642</v>
+        <v>312.2166492762431</v>
       </c>
       <c r="O41" t="n">
-        <v>270.581664843158</v>
+        <v>270.5816648431578</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>220.6440864811952</v>
       </c>
       <c r="Q41" t="n">
-        <v>145.6191479222378</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>39.93826895220045</v>
+        <v>39.93826895220025</v>
       </c>
       <c r="S41" t="n">
-        <v>6.849944281422736</v>
+        <v>6.849944281422538</v>
       </c>
       <c r="T41" t="n">
-        <v>11.69277119935316</v>
+        <v>11.69277119935296</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37832,7 +37832,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>43.11171904677209</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>43.11171904677271</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>56.49220596904075</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37920,19 +37920,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>92.43298542178405</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.6642184147056032</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>68.3298499986756</v>
       </c>
       <c r="I43" t="n">
-        <v>33.05328896063708</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>48.71314190273922</v>
+        <v>58.81674346001941</v>
       </c>
       <c r="K44" t="n">
-        <v>228.8210866273198</v>
+        <v>46.96626829098903</v>
       </c>
       <c r="L44" t="n">
-        <v>283.0872923043206</v>
+        <v>283.0872923043205</v>
       </c>
       <c r="M44" t="n">
-        <v>234.2339025321168</v>
+        <v>317.7744090693964</v>
       </c>
       <c r="N44" t="n">
-        <v>312.2166492762433</v>
+        <v>312.2166492762432</v>
       </c>
       <c r="O44" t="n">
-        <v>270.581664843158</v>
+        <v>36.47253820914894</v>
       </c>
       <c r="P44" t="n">
-        <v>83.88166647985099</v>
+        <v>220.6440864811953</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>145.6191479222377</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>39.9382689522003</v>
       </c>
       <c r="S44" t="n">
-        <v>6.849944281422736</v>
+        <v>6.849944281422594</v>
       </c>
       <c r="T44" t="n">
-        <v>11.69277119935316</v>
+        <v>11.69277119935302</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>43.11171904677209</v>
+        <v>43.11171904677253</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38148,13 +38148,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56.49220596904095</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>56.07749789004382</v>
       </c>
       <c r="D46" t="n">
-        <v>68.99406841338018</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.40877649237788</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
